--- a/ENGIN_X_DATA_CLEANING/Filenames.xlsx
+++ b/ENGIN_X_DATA_CLEANING/Filenames.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="453">
   <si>
     <t>NG45688.RAW</t>
   </si>
@@ -149,9 +149,357 @@
     <t>slit_v.txt</t>
   </si>
   <si>
+    <t>cryo_temp1.txt</t>
+  </si>
+  <si>
+    <t>cryo_temp2.txt</t>
+  </si>
+  <si>
+    <t>maxheaterOP1.txt</t>
+  </si>
+  <si>
+    <t>maxheaterOP2.txt</t>
+  </si>
+  <si>
+    <t>TC_2.txt</t>
+  </si>
+  <si>
+    <t>TC_4.txt</t>
+  </si>
+  <si>
+    <t>TC_5.txt</t>
+  </si>
+  <si>
+    <t>TC_6.txt</t>
+  </si>
+  <si>
+    <t>FURNACE_TEMP1.txt</t>
+  </si>
+  <si>
+    <t>funace.txt</t>
+  </si>
+  <si>
+    <t>funace_pwr.txt</t>
+  </si>
+  <si>
+    <t>furnace.txt</t>
+  </si>
+  <si>
+    <t>furnace_pwr.txt</t>
+  </si>
+  <si>
+    <t>crosshead_pos.txt-1.txt</t>
+  </si>
+  <si>
+    <t>furnace.txt-1.txt</t>
+  </si>
+  <si>
+    <t>furnace_pwr.txt-1.txt</t>
+  </si>
+  <si>
+    <t>slitpos.txt-1.txt</t>
+  </si>
+  <si>
+    <t>slit_h.txt-1.txt</t>
+  </si>
+  <si>
+    <t>slit_v.txt-1.txt</t>
+  </si>
+  <si>
+    <t>strain.txt-1.txt</t>
+  </si>
+  <si>
+    <t>stress.txt-1.txt</t>
+  </si>
+  <si>
+    <t>w.txt-1.txt</t>
+  </si>
+  <si>
+    <t>x.txt-1.txt</t>
+  </si>
+  <si>
+    <t>y.txt-1.txt</t>
+  </si>
+  <si>
+    <t>z.txt-1.txt</t>
+  </si>
+  <si>
+    <t>Loadcell.txt</t>
+  </si>
+  <si>
+    <t>Ref_sample.txt</t>
+  </si>
+  <si>
+    <t>AluminiumN.txt</t>
+  </si>
+  <si>
+    <t>AluminiumS.txt</t>
+  </si>
+  <si>
+    <t>Steel2.txt</t>
+  </si>
+  <si>
+    <t>Real_furnace.txt</t>
+  </si>
+  <si>
+    <t>Real_pwr.txt</t>
+  </si>
+  <si>
+    <t>Extensometer.txt</t>
+  </si>
+  <si>
+    <t>Sample.txt</t>
+  </si>
+  <si>
+    <t>jaws1_h.txt</t>
+  </si>
+  <si>
+    <t>jaws1_v.txt</t>
+  </si>
+  <si>
+    <t>jaws2_h.txt</t>
+  </si>
+  <si>
+    <t>jaws2_v.txt</t>
+  </si>
+  <si>
+    <t>Jaws1_h.txt</t>
+  </si>
+  <si>
+    <t>Jaws1_v.txt</t>
+  </si>
+  <si>
+    <t>Jaws2_h.txt</t>
+  </si>
+  <si>
+    <t>Jaws2_v.txt</t>
+  </si>
+  <si>
+    <t>raw.old</t>
+  </si>
+  <si>
+    <t>raw.keep</t>
+  </si>
+  <si>
+    <t>Jaw1_H.txt</t>
+  </si>
+  <si>
+    <t>Jaw1_V.txt</t>
+  </si>
+  <si>
+    <t>Jaw2_H.txt</t>
+  </si>
+  <si>
+    <t>Jaw2_V.txt</t>
+  </si>
+  <si>
+    <t>Thermocouple_0.txt</t>
+  </si>
+  <si>
+    <t>Thermocouple_1.txt</t>
+  </si>
+  <si>
+    <t>Thermocouple_2.txt</t>
+  </si>
+  <si>
+    <t>Thermocouple_3.txt</t>
+  </si>
+  <si>
+    <t>Thermocouple_4.txt</t>
+  </si>
+  <si>
+    <t>Thermocouple_5.txt</t>
+  </si>
+  <si>
+    <t>Thermocouple_6.txt</t>
+  </si>
+  <si>
+    <t>Thermocouple_7.txt</t>
+  </si>
+  <si>
+    <t>Transmission.txt</t>
+  </si>
+  <si>
+    <t>Furnace.txt</t>
+  </si>
+  <si>
+    <t>Furnace_pwr.txt</t>
+  </si>
+  <si>
+    <t>Furnace_ramp.txt</t>
+  </si>
+  <si>
     <t>log</t>
   </si>
   <si>
+    <t>Cryo_sample.txt</t>
+  </si>
+  <si>
+    <t>cryo_Sample.txt</t>
+  </si>
+  <si>
+    <t>Heater1.txt</t>
+  </si>
+  <si>
+    <t>Heater2.txt</t>
+  </si>
+  <si>
+    <t>Cyba_a.txt</t>
+  </si>
+  <si>
+    <t>Cyba_b.txt</t>
+  </si>
+  <si>
+    <t>Cyba_c.txt</t>
+  </si>
+  <si>
+    <t>Jaws2_W.txt</t>
+  </si>
+  <si>
+    <t>Jaws1_E.txt</t>
+  </si>
+  <si>
+    <t>Jaws1_W.txt</t>
+  </si>
+  <si>
+    <t>Jaws2_E.txt</t>
+  </si>
+  <si>
+    <t>Lamp.txt</t>
+  </si>
+  <si>
+    <t>Extensometer_TC.txt</t>
+  </si>
+  <si>
+    <t>Load_cell_TC.txt</t>
+  </si>
+  <si>
+    <t>Hydraulics.txt</t>
+  </si>
+  <si>
+    <t>Hydralics.txt</t>
+  </si>
+  <si>
+    <t>Loacell.txt</t>
+  </si>
+  <si>
+    <t>Cryo_L.txt</t>
+  </si>
+  <si>
+    <t>Cryo_R.txt</t>
+  </si>
+  <si>
+    <t>BeamCurrent.txt</t>
+  </si>
+  <si>
+    <t>Furnace_rate.txt</t>
+  </si>
+  <si>
+    <t>W_Setpoint.txt</t>
+  </si>
+  <si>
+    <t>Output_Current.txt</t>
+  </si>
+  <si>
+    <t>Output_Voltage.txt</t>
+  </si>
+  <si>
+    <t>Readback_voltage.txt</t>
+  </si>
+  <si>
+    <t>Voltage.txt</t>
+  </si>
+  <si>
+    <t>Cryo_Left.txt</t>
+  </si>
+  <si>
+    <t>Cryo_Right.txt</t>
+  </si>
+  <si>
+    <t>Read_Current.txt</t>
+  </si>
+  <si>
+    <t>Read_Voltage.txt</t>
+  </si>
+  <si>
+    <t>furnace_rate.txt</t>
+  </si>
+  <si>
+    <t>Chi.txt</t>
+  </si>
+  <si>
+    <t>Phi.txt</t>
+  </si>
+  <si>
+    <t>LoadcellTmp.txt</t>
+  </si>
+  <si>
+    <t>Stress.txt</t>
+  </si>
+  <si>
+    <t>Beam.txt</t>
+  </si>
+  <si>
+    <t>log;1</t>
+  </si>
+  <si>
+    <t>dzero_TC.txt</t>
+  </si>
+  <si>
+    <t>TC3.txt</t>
+  </si>
+  <si>
+    <t>TC4.txt</t>
+  </si>
+  <si>
+    <t>ICPputlog.txt</t>
+  </si>
+  <si>
+    <t>jaws1_hgap.txt</t>
+  </si>
+  <si>
+    <t>jaws2_hgap.txt</t>
+  </si>
+  <si>
+    <t>jaws3_hgap.txt</t>
+  </si>
+  <si>
+    <t>jaws3_vgap.txt</t>
+  </si>
+  <si>
+    <t>North_X.txt</t>
+  </si>
+  <si>
+    <t>North_X_hlim.txt</t>
+  </si>
+  <si>
+    <t>North_X_llim.txt</t>
+  </si>
+  <si>
+    <t>South_X.txt</t>
+  </si>
+  <si>
+    <t>South_X_hlim.txt</t>
+  </si>
+  <si>
+    <t>South_X_llim.txt</t>
+  </si>
+  <si>
+    <t>S_position.txt</t>
+  </si>
+  <si>
+    <t>W_position.txt</t>
+  </si>
+  <si>
+    <t>X_position.txt</t>
+  </si>
+  <si>
+    <t>Y_position.txt</t>
+  </si>
+  <si>
+    <t>Z_position.txt</t>
+  </si>
+  <si>
     <t>amplitude.txt</t>
   </si>
   <si>
@@ -164,174 +512,147 @@
     <t>cycles.txt</t>
   </si>
   <si>
+    <t>frequency.txt</t>
+  </si>
+  <si>
+    <t>Max_output_1.txt</t>
+  </si>
+  <si>
+    <t>Max_output_2.txt</t>
+  </si>
+  <si>
+    <t>Max_output_3.txt</t>
+  </si>
+  <si>
+    <t>position.txt</t>
+  </si>
+  <si>
+    <t>pos_step_time.txt</t>
+  </si>
+  <si>
+    <t>Rampon_3.txt</t>
+  </si>
+  <si>
+    <t>Ramprate_3.txt</t>
+  </si>
+  <si>
+    <t>strain_step_time.txt</t>
+  </si>
+  <si>
+    <t>stress_step_time.txt</t>
+  </si>
+  <si>
+    <t>Temp_1.txt</t>
+  </si>
+  <si>
+    <t>Temp_2.txt</t>
+  </si>
+  <si>
+    <t>Temp_3.txt</t>
+  </si>
+  <si>
+    <t>wave_running.txt</t>
+  </si>
+  <si>
+    <t>wave_start.txt</t>
+  </si>
+  <si>
+    <t>wave_type.txt</t>
+  </si>
+  <si>
+    <t>stressrig_go.txt</t>
+  </si>
+  <si>
+    <t>Furnace_temp.txt</t>
+  </si>
+  <si>
+    <t>position_sp_rbv.txt</t>
+  </si>
+  <si>
+    <t>strain_sp_rbv.txt</t>
+  </si>
+  <si>
+    <t>stress_sp_rbv.txt</t>
+  </si>
+  <si>
+    <t>PIRot.txt</t>
+  </si>
+  <si>
+    <t>zip</t>
+  </si>
+  <si>
+    <t>DAE_lower_range.txt</t>
+  </si>
+  <si>
+    <t>Output_1.txt</t>
+  </si>
+  <si>
+    <t>Output_2.txt</t>
+  </si>
+  <si>
+    <t>Keithley2000.txt</t>
+  </si>
+  <si>
+    <t>LoadCell.txt</t>
+  </si>
+  <si>
+    <t>COUNTS.txt</t>
+  </si>
+  <si>
+    <t>COUNT_RATE.txt</t>
+  </si>
+  <si>
+    <t>CURRENT.txt</t>
+  </si>
+  <si>
+    <t>GOODUAH.txt</t>
+  </si>
+  <si>
+    <t>POS_MAX_LIMIT.txt</t>
+  </si>
+  <si>
+    <t>POS_MIN_LIMIT.txt</t>
+  </si>
+  <si>
+    <t>S.txt</t>
+  </si>
+  <si>
+    <t>W.txt</t>
+  </si>
+  <si>
+    <t>X_lim.txt</t>
+  </si>
+  <si>
+    <t>X_speed.txt</t>
+  </si>
+  <si>
+    <t>RampRate.txt</t>
+  </si>
+  <si>
+    <t>NORTH_X_HLIM.TXT</t>
+  </si>
+  <si>
     <t>cycle_rbv.txt</t>
   </si>
   <si>
-    <t>frequency.txt</t>
-  </si>
-  <si>
-    <t>ICPputlog.txt</t>
-  </si>
-  <si>
-    <t>jaws1_hgap.txt</t>
-  </si>
-  <si>
-    <t>jaws2_hgap.txt</t>
-  </si>
-  <si>
-    <t>jaws3_hgap.txt</t>
-  </si>
-  <si>
-    <t>jaws3_vgap.txt</t>
-  </si>
-  <si>
-    <t>Max_output_1.txt</t>
-  </si>
-  <si>
-    <t>Max_output_2.txt</t>
-  </si>
-  <si>
-    <t>Max_output_3.txt</t>
-  </si>
-  <si>
-    <t>North_X.txt</t>
-  </si>
-  <si>
-    <t>North_X_hlim.txt</t>
-  </si>
-  <si>
-    <t>North_X_llim.txt</t>
-  </si>
-  <si>
-    <t>Output_1.txt</t>
-  </si>
-  <si>
-    <t>Output_2.txt</t>
-  </si>
-  <si>
-    <t>position.txt</t>
-  </si>
-  <si>
-    <t>position_sp_rbv.txt</t>
-  </si>
-  <si>
-    <t>pos_step_time.txt</t>
-  </si>
-  <si>
-    <t>Rampon_3.txt</t>
-  </si>
-  <si>
-    <t>RampRate.txt</t>
-  </si>
-  <si>
-    <t>Ramprate_3.txt</t>
-  </si>
-  <si>
-    <t>South_X.txt</t>
-  </si>
-  <si>
-    <t>South_X_hlim.txt</t>
-  </si>
-  <si>
-    <t>South_X_llim.txt</t>
-  </si>
-  <si>
-    <t>strain_sp_rbv.txt</t>
-  </si>
-  <si>
-    <t>strain_step_time.txt</t>
-  </si>
-  <si>
-    <t>stressrig_go.txt</t>
-  </si>
-  <si>
-    <t>stress_sp_rbv.txt</t>
-  </si>
-  <si>
-    <t>stress_step_time.txt</t>
-  </si>
-  <si>
-    <t>S_position.txt</t>
-  </si>
-  <si>
-    <t>Temp_1.txt</t>
-  </si>
-  <si>
-    <t>Temp_2.txt</t>
-  </si>
-  <si>
-    <t>Temp_3.txt</t>
-  </si>
-  <si>
-    <t>wave_running.txt</t>
-  </si>
-  <si>
-    <t>wave_start.txt</t>
-  </si>
-  <si>
-    <t>wave_type.txt</t>
-  </si>
-  <si>
-    <t>W_position.txt</t>
-  </si>
-  <si>
-    <t>X_position.txt</t>
-  </si>
-  <si>
-    <t>Y_position.txt</t>
-  </si>
-  <si>
-    <t>Z_position.txt</t>
-  </si>
-  <si>
-    <t>Cyba_a.txt</t>
-  </si>
-  <si>
-    <t>Cyba_b.txt</t>
-  </si>
-  <si>
-    <t>Cyba_c.txt</t>
-  </si>
-  <si>
-    <t>DAE_lower_range.txt</t>
-  </si>
-  <si>
-    <t>COUNTS.txt</t>
-  </si>
-  <si>
-    <t>COUNT_RATE.txt</t>
-  </si>
-  <si>
-    <t>CURRENT.txt</t>
-  </si>
-  <si>
-    <t>GOODUAH.txt</t>
+    <t>POSITION.txt</t>
+  </si>
+  <si>
+    <t>FURNACE.txt</t>
+  </si>
+  <si>
+    <t>RAMP_ON.txt</t>
+  </si>
+  <si>
+    <t>RAMP_RATE.txt</t>
   </si>
   <si>
     <t>Inner.txt</t>
   </si>
   <si>
-    <t>LoadCell.txt</t>
-  </si>
-  <si>
     <t>Outer.txt</t>
   </si>
   <si>
-    <t>POS_MAX_LIMIT.txt</t>
-  </si>
-  <si>
-    <t>POS_MIN_LIMIT.txt</t>
-  </si>
-  <si>
-    <t>W.txt</t>
-  </si>
-  <si>
-    <t>X_lim.txt</t>
-  </si>
-  <si>
-    <t>X_speed.txt</t>
-  </si>
-  <si>
     <t>jaws1_vgap.txt</t>
   </si>
   <si>
@@ -470,187 +791,508 @@
     <t>ENGINX00205711_slit_v.txt</t>
   </si>
   <si>
-    <t>ENGINX00305258.log</t>
-  </si>
-  <si>
-    <t>ENGINX00305258_amplitude.txt</t>
-  </si>
-  <si>
-    <t>ENGINX00305258_control_channel.txt</t>
-  </si>
-  <si>
-    <t>ENGINX00305258_control_channel_string.txt</t>
-  </si>
-  <si>
-    <t>ENGINX00305258_cycles.txt</t>
-  </si>
-  <si>
-    <t>ENGINX00305258_cycle_rbv.txt</t>
-  </si>
-  <si>
-    <t>ENGINX00305258_frequency.txt</t>
-  </si>
-  <si>
-    <t>ENGINX00305258_ICPputlog.txt</t>
-  </si>
-  <si>
-    <t>ENGINX00305258_jaws1_hgap.txt</t>
-  </si>
-  <si>
-    <t>ENGINX00305258_jaws2_hgap.txt</t>
-  </si>
-  <si>
-    <t>ENGINX00305258_jaws3_hgap.txt</t>
-  </si>
-  <si>
-    <t>ENGINX00305258_jaws3_vgap.txt</t>
-  </si>
-  <si>
-    <t>ENGINX00305258_Max_output_1.txt</t>
-  </si>
-  <si>
-    <t>ENGINX00305258_Max_output_2.txt</t>
-  </si>
-  <si>
-    <t>ENGINX00305258_Max_output_3.txt</t>
-  </si>
-  <si>
-    <t>ENGINX00305258_North_X.txt</t>
-  </si>
-  <si>
-    <t>ENGINX00305258_North_X_hlim.txt</t>
-  </si>
-  <si>
-    <t>ENGINX00305258_North_X_llim.txt</t>
-  </si>
-  <si>
-    <t>ENGINX00305258_Output_1.txt</t>
-  </si>
-  <si>
-    <t>ENGINX00305258_Output_2.txt</t>
-  </si>
-  <si>
-    <t>ENGINX00305258_position.txt</t>
-  </si>
-  <si>
-    <t>ENGINX00305258_position_sp_rbv.txt</t>
-  </si>
-  <si>
-    <t>ENGINX00305258_pos_step_time.txt</t>
-  </si>
-  <si>
-    <t>ENGINX00305258_Rampon_3.txt</t>
-  </si>
-  <si>
-    <t>ENGINX00305258_RampRate.txt</t>
-  </si>
-  <si>
-    <t>ENGINX00305258_Ramprate_3.txt</t>
-  </si>
-  <si>
-    <t>ENGINX00305258_South_X.txt</t>
-  </si>
-  <si>
-    <t>ENGINX00305258_South_X_hlim.txt</t>
-  </si>
-  <si>
-    <t>ENGINX00305258_South_X_llim.txt</t>
-  </si>
-  <si>
-    <t>ENGINX00305258_strain_sp_rbv.txt</t>
-  </si>
-  <si>
-    <t>ENGINX00305258_strain_step_time.txt</t>
-  </si>
-  <si>
-    <t>ENGINX00305258_stressrig_go.txt</t>
-  </si>
-  <si>
-    <t>ENGINX00305258_stress_sp_rbv.txt</t>
-  </si>
-  <si>
-    <t>ENGINX00305258_stress_step_time.txt</t>
-  </si>
-  <si>
-    <t>ENGINX00305258_S_position.txt</t>
-  </si>
-  <si>
-    <t>ENGINX00305258_Temp_1.txt</t>
-  </si>
-  <si>
-    <t>ENGINX00305258_Temp_2.txt</t>
-  </si>
-  <si>
-    <t>ENGINX00305258_Temp_3.txt</t>
-  </si>
-  <si>
-    <t>ENGINX00305258_wave_running.txt</t>
-  </si>
-  <si>
-    <t>ENGINX00305258_wave_start.txt</t>
-  </si>
-  <si>
-    <t>ENGINX00305258_wave_type.txt</t>
-  </si>
-  <si>
-    <t>ENGINX00305258_W_position.txt</t>
-  </si>
-  <si>
-    <t>ENGINX00305258_X_position.txt</t>
-  </si>
-  <si>
-    <t>ENGINX00305258_Y_position.txt</t>
-  </si>
-  <si>
-    <t>ENGINX00305258_Z_position.txt</t>
-  </si>
-  <si>
-    <t>ENGINX00305259_Cyba_a.txt</t>
-  </si>
-  <si>
-    <t>ENGINX00305259_Cyba_b.txt</t>
-  </si>
-  <si>
-    <t>ENGINX00305259_Cyba_c.txt</t>
-  </si>
-  <si>
-    <t>ENGINX00306297_DAE_lower_range.txt</t>
-  </si>
-  <si>
-    <t>ENGINX00306623_COUNTS.txt</t>
-  </si>
-  <si>
-    <t>ENGINX00306623_COUNT_RATE.txt</t>
-  </si>
-  <si>
-    <t>ENGINX00306623_CURRENT.txt</t>
-  </si>
-  <si>
-    <t>ENGINX00306623_GOODUAH.txt</t>
-  </si>
-  <si>
-    <t>ENGINX00306623_Inner.txt</t>
-  </si>
-  <si>
-    <t>ENGINX00306623_LoadCell.txt</t>
-  </si>
-  <si>
-    <t>ENGINX00306623_Outer.txt</t>
-  </si>
-  <si>
-    <t>ENGINX00306623_POS_MAX_LIMIT.txt</t>
-  </si>
-  <si>
-    <t>ENGINX00306623_POS_MIN_LIMIT.txt</t>
-  </si>
-  <si>
-    <t>ENGINX00306623_W.txt</t>
-  </si>
-  <si>
-    <t>ENGINX00306623_X_lim.txt</t>
-  </si>
-  <si>
-    <t>ENGINX00306623_X_speed.txt</t>
+    <t>ENGINX00205719_cryo_temp1.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00205719_cryo_temp2.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00205719_maxheaterOP1.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00205719_maxheaterOP2.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00205719_TC_2.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00205719_TC_4.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00205719_TC_5.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00205719_TC_6.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00205903_FURNACE_TEMP1.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00206374_funace.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00206374_funace_pwr.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00206374_furnace.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00206374_furnace_pwr.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00210605_crosshead_pos.txt-1.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00210605_furnace.txt-1.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00210605_furnace_pwr.txt-1.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00210605_slitpos.txt-1.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00210605_slit_h.txt-1.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00210605_slit_v.txt-1.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00210605_strain.txt-1.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00210605_stress.txt-1.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00210605_w.txt-1.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00210605_x.txt-1.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00210605_y.txt-1.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00210605_z.txt-1.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00210944_Loadcell.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00211318_Ref_sample.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00211700_AluminiumN.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00211700_AluminiumS.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00211700_Steel2.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00211865_Real_furnace.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00211865_Real_pwr.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00214102_Extensometer.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00214102_Sample.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00215964_jaws1_h.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00215964_jaws1_v.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00215964_jaws2_h.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00215964_jaws2_v.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00219886_Jaws1_h.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00219886_Jaws1_v.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00219886_Jaws2_h.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00219886_Jaws2_v.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00221447.raw.old</t>
+  </si>
+  <si>
+    <t>ENGINX00221771.raw.keep</t>
+  </si>
+  <si>
+    <t>ENGINX00224970_Jaw1_H.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00224970_Jaw1_V.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00224970_Jaw2_H.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00224970_Jaw2_V.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00225130_Thermocouple_0.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00225130_Thermocouple_1.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00225130_Thermocouple_2.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00225130_Thermocouple_3.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00225130_Thermocouple_4.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00225130_Thermocouple_5.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00225130_Thermocouple_6.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00225130_Thermocouple_7.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00225130_Transmission.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00225392_Furnace.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00226956_Furnace_pwr.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00226956_Furnace_ramp.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00228026.log</t>
+  </si>
+  <si>
+    <t>ENGINX00228027_Cryo_sample.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00228030_cryo_Sample.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00228031_Heater1.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00228031_Heater2.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00228032_Cyba_a.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00228032_Cyba_b.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00228032_Cyba_c.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00232440_Jaws2_W.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00232449_Jaws1_E.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00232449_Jaws1_W.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00232449_Jaws2_E.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00236904_Lamp.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00240875_Extensometer_TC.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00240875_Load_cell_TC.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00242909_Hydraulics.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00243060_Hydralics.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00243060_Loacell.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00244366_Cryo_L.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00244366_Cryo_R.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00246045_BeamCurrent.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00246575_Furnace_rate.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00254493_W_Setpoint.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00257558_Output_Current.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00257558_Output_Voltage.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00257558_Readback_voltage.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00257558_Voltage.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00257590_Cryo_Left.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00257590_Cryo_Right.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00257591_Read_Current.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00257591_Read_Voltage.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00258498_furnace_rate.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00260062_Chi.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00260062_Phi.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00263771_LoadcellTmp.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00266670_Stress.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00267621_Beam.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00269237.log;1</t>
+  </si>
+  <si>
+    <t>ENGINX00272232_dzero_TC.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00272299_TC3.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00272299_TC4.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00275375_ICPputlog.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00275777_jaws1_hgap.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00275777_jaws2_hgap.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00275777_jaws3_hgap.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00275777_jaws3_vgap.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00275777_North_X.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00275777_North_X_hlim.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00275777_North_X_llim.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00275777_South_X.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00275777_South_X_hlim.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00275777_South_X_llim.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00275777_S_position.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00275777_W_position.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00275777_X_position.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00275777_Y_position.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00275777_Z_position.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00276086_amplitude.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00276086_control_channel.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00276086_control_channel_string.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00276086_cycles.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00276086_frequency.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00276086_Max_output_1.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00276086_Max_output_2.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00276086_Max_output_3.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00276086_position.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00276086_pos_step_time.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00276086_Rampon_3.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00276086_Ramprate_3.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00276086_strain_step_time.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00276086_stress_step_time.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00276086_Temp_1.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00276086_Temp_2.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00276086_Temp_3.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00276086_wave_running.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00276086_wave_start.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00276086_wave_type.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00276993_stressrig_go.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00277208_Furnace_temp.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00277632_position_sp_rbv.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00277632_strain_sp_rbv.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00277632_stress_sp_rbv.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00279181_PIRot.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00279182.zip</t>
+  </si>
+  <si>
+    <t>ENGINX00279273_DAE_lower_range.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00280374_Output_1.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00280374_Output_2.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00284420_Keithley2000.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00284420_LoadCell.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00286034_COUNTS.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00286034_COUNT_RATE.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00286034_CURRENT.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00286034_GOODUAH.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00286034_POS_MAX_LIMIT.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00286034_POS_MIN_LIMIT.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00286034_S.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00286034_W.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00286034_X_lim.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00286034_X_speed.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00287960_RampRate.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00294939_NORTH_X_HLIM.TXT</t>
+  </si>
+  <si>
+    <t>ENGINX00296723_cycle_rbv.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00297884_POSITION.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00298517_FURNACE.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00298517_RAMP_ON.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00298517_RAMP_RATE.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00303722_Inner.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00303722_Outer.txt</t>
   </si>
   <si>
     <t>ENGINX00306833_jaws1_vgap.txt</t>
@@ -663,6 +1305,72 @@
   </si>
   <si>
     <t>cycle_13_1</t>
+  </si>
+  <si>
+    <t>cycle_13_2</t>
+  </si>
+  <si>
+    <t>cycle_13_3</t>
+  </si>
+  <si>
+    <t>cycle_13_4</t>
+  </si>
+  <si>
+    <t>cycle_13_5</t>
+  </si>
+  <si>
+    <t>cycle_14_1</t>
+  </si>
+  <si>
+    <t>cycle_14_2</t>
+  </si>
+  <si>
+    <t>cycle_14_3</t>
+  </si>
+  <si>
+    <t>cycle_15_1</t>
+  </si>
+  <si>
+    <t>cycle_15_2</t>
+  </si>
+  <si>
+    <t>cycle_15_3</t>
+  </si>
+  <si>
+    <t>cycle_15_4</t>
+  </si>
+  <si>
+    <t>cycle_16_1</t>
+  </si>
+  <si>
+    <t>cycle_16_3</t>
+  </si>
+  <si>
+    <t>cycle_16_4</t>
+  </si>
+  <si>
+    <t>cycle_16_5</t>
+  </si>
+  <si>
+    <t>cycle_17_1</t>
+  </si>
+  <si>
+    <t>cycle_17_2</t>
+  </si>
+  <si>
+    <t>cycle_17_3</t>
+  </si>
+  <si>
+    <t>cycle_17_4</t>
+  </si>
+  <si>
+    <t>cycle_18_1</t>
+  </si>
+  <si>
+    <t>cycle_18_2</t>
+  </si>
+  <si>
+    <t>cycle_18_4</t>
   </si>
   <si>
     <t>cycle_19_1</t>
@@ -997,7 +1705,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B107"/>
+  <dimension ref="A1:B214"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1008,7 +1716,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>214</v>
+        <v>428</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1016,7 +1724,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>214</v>
+        <v>428</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1024,7 +1732,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>214</v>
+        <v>428</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1032,7 +1740,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>214</v>
+        <v>428</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1040,7 +1748,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>214</v>
+        <v>428</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1048,7 +1756,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>214</v>
+        <v>428</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1056,7 +1764,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>214</v>
+        <v>428</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1064,7 +1772,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>214</v>
+        <v>428</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1072,7 +1780,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>214</v>
+        <v>428</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1080,7 +1788,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>214</v>
+        <v>428</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1088,7 +1796,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>214</v>
+        <v>428</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1096,7 +1804,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>214</v>
+        <v>428</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1104,7 +1812,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>214</v>
+        <v>428</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1112,7 +1820,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>214</v>
+        <v>428</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1120,7 +1828,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>214</v>
+        <v>428</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1128,7 +1836,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>214</v>
+        <v>428</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1136,7 +1844,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>214</v>
+        <v>428</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1144,7 +1852,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>214</v>
+        <v>428</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1152,7 +1860,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>214</v>
+        <v>428</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1160,7 +1868,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>214</v>
+        <v>428</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1168,7 +1876,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>214</v>
+        <v>428</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1176,7 +1884,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>214</v>
+        <v>428</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1184,7 +1892,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>214</v>
+        <v>428</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1192,7 +1900,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>215</v>
+        <v>429</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1200,7 +1908,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>215</v>
+        <v>429</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1208,7 +1916,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>215</v>
+        <v>429</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1216,7 +1924,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>215</v>
+        <v>429</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1224,7 +1932,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>215</v>
+        <v>429</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1232,7 +1940,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>215</v>
+        <v>429</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1240,7 +1948,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>215</v>
+        <v>429</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1248,7 +1956,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>215</v>
+        <v>429</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1256,7 +1964,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>215</v>
+        <v>429</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1264,7 +1972,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>215</v>
+        <v>429</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1272,7 +1980,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>215</v>
+        <v>429</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1280,7 +1988,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>215</v>
+        <v>429</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1288,7 +1996,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>215</v>
+        <v>429</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1296,7 +2004,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>215</v>
+        <v>429</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1304,7 +2012,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>215</v>
+        <v>429</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1312,7 +2020,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>215</v>
+        <v>429</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1320,7 +2028,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>215</v>
+        <v>429</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1328,7 +2036,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>215</v>
+        <v>429</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1336,7 +2044,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>215</v>
+        <v>429</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1344,7 +2052,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>215</v>
+        <v>429</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1352,7 +2060,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>215</v>
+        <v>429</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1360,7 +2068,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>216</v>
+        <v>430</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1368,7 +2076,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>216</v>
+        <v>430</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1376,7 +2084,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>216</v>
+        <v>430</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1384,7 +2092,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>216</v>
+        <v>430</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1392,7 +2100,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>216</v>
+        <v>430</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1400,7 +2108,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>216</v>
+        <v>430</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1408,7 +2116,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>216</v>
+        <v>430</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1416,7 +2124,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>216</v>
+        <v>430</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1424,7 +2132,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>216</v>
+        <v>430</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1432,7 +2140,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>216</v>
+        <v>430</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1440,7 +2148,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>216</v>
+        <v>430</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1448,7 +2156,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>216</v>
+        <v>430</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1456,7 +2164,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>216</v>
+        <v>430</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1464,7 +2172,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>216</v>
+        <v>431</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1472,7 +2180,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>216</v>
+        <v>431</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1480,7 +2188,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>216</v>
+        <v>431</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1488,7 +2196,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>216</v>
+        <v>431</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1496,7 +2204,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>216</v>
+        <v>431</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1504,7 +2212,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>216</v>
+        <v>431</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1512,7 +2220,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>216</v>
+        <v>431</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1520,7 +2228,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>216</v>
+        <v>431</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1528,7 +2236,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>216</v>
+        <v>431</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1536,7 +2244,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>216</v>
+        <v>431</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1544,7 +2252,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>216</v>
+        <v>431</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1552,7 +2260,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>216</v>
+        <v>431</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1560,7 +2268,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>216</v>
+        <v>432</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1568,7 +2276,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>216</v>
+        <v>432</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1576,7 +2284,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>216</v>
+        <v>432</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1584,7 +2292,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>216</v>
+        <v>432</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1592,7 +2300,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>216</v>
+        <v>432</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1600,7 +2308,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>216</v>
+        <v>432</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1608,7 +2316,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>216</v>
+        <v>432</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1616,7 +2324,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>216</v>
+        <v>433</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1624,7 +2332,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>216</v>
+        <v>433</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1632,7 +2340,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>216</v>
+        <v>433</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1640,7 +2348,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>216</v>
+        <v>433</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1648,7 +2356,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>216</v>
+        <v>433</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1656,7 +2364,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>216</v>
+        <v>433</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1664,7 +2372,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>216</v>
+        <v>434</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1672,7 +2380,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>216</v>
+        <v>434</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1680,7 +2388,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>216</v>
+        <v>434</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1688,7 +2396,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>216</v>
+        <v>434</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1696,7 +2404,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>216</v>
+        <v>434</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1704,7 +2412,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>216</v>
+        <v>434</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1712,7 +2420,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>216</v>
+        <v>435</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1720,7 +2428,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>216</v>
+        <v>435</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1728,7 +2436,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>216</v>
+        <v>435</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1736,7 +2444,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>216</v>
+        <v>435</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1744,7 +2452,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>216</v>
+        <v>435</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1752,7 +2460,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>216</v>
+        <v>435</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1760,7 +2468,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>216</v>
+        <v>435</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1768,7 +2476,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>216</v>
+        <v>435</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1776,7 +2484,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>216</v>
+        <v>435</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1784,7 +2492,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>216</v>
+        <v>435</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1792,7 +2500,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>216</v>
+        <v>435</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1800,7 +2508,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>216</v>
+        <v>435</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1808,7 +2516,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>216</v>
+        <v>435</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1816,7 +2524,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>216</v>
+        <v>435</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1824,7 +2532,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>216</v>
+        <v>435</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1832,7 +2540,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>216</v>
+        <v>435</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1840,7 +2548,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>216</v>
+        <v>436</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1848,7 +2556,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>216</v>
+        <v>436</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1856,7 +2564,863 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>216</v>
+        <v>436</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" t="s">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" t="s">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" t="s">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" t="s">
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" t="s">
+        <v>111</v>
+      </c>
+      <c r="B112" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" t="s">
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" t="s">
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" t="s">
+        <v>114</v>
+      </c>
+      <c r="B115" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" t="s">
+        <v>115</v>
+      </c>
+      <c r="B116" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" t="s">
+        <v>116</v>
+      </c>
+      <c r="B117" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" t="s">
+        <v>117</v>
+      </c>
+      <c r="B118" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" t="s">
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" t="s">
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" t="s">
+        <v>120</v>
+      </c>
+      <c r="B121" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" t="s">
+        <v>121</v>
+      </c>
+      <c r="B122" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" t="s">
+        <v>122</v>
+      </c>
+      <c r="B123" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" t="s">
+        <v>123</v>
+      </c>
+      <c r="B124" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" t="s">
+        <v>124</v>
+      </c>
+      <c r="B125" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" t="s">
+        <v>125</v>
+      </c>
+      <c r="B126" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" t="s">
+        <v>126</v>
+      </c>
+      <c r="B127" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" t="s">
+        <v>127</v>
+      </c>
+      <c r="B128" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" t="s">
+        <v>128</v>
+      </c>
+      <c r="B129" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" t="s">
+        <v>129</v>
+      </c>
+      <c r="B130" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" t="s">
+        <v>130</v>
+      </c>
+      <c r="B131" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" t="s">
+        <v>131</v>
+      </c>
+      <c r="B132" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" t="s">
+        <v>132</v>
+      </c>
+      <c r="B133" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" t="s">
+        <v>133</v>
+      </c>
+      <c r="B134" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" t="s">
+        <v>134</v>
+      </c>
+      <c r="B135" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" t="s">
+        <v>135</v>
+      </c>
+      <c r="B136" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" t="s">
+        <v>136</v>
+      </c>
+      <c r="B137" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" t="s">
+        <v>137</v>
+      </c>
+      <c r="B138" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" t="s">
+        <v>138</v>
+      </c>
+      <c r="B139" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" t="s">
+        <v>139</v>
+      </c>
+      <c r="B140" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" t="s">
+        <v>140</v>
+      </c>
+      <c r="B141" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" t="s">
+        <v>141</v>
+      </c>
+      <c r="B142" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" t="s">
+        <v>142</v>
+      </c>
+      <c r="B143" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" t="s">
+        <v>143</v>
+      </c>
+      <c r="B144" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" t="s">
+        <v>144</v>
+      </c>
+      <c r="B145" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" t="s">
+        <v>145</v>
+      </c>
+      <c r="B146" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" t="s">
+        <v>146</v>
+      </c>
+      <c r="B147" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" t="s">
+        <v>147</v>
+      </c>
+      <c r="B148" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" t="s">
+        <v>148</v>
+      </c>
+      <c r="B149" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" t="s">
+        <v>149</v>
+      </c>
+      <c r="B150" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" t="s">
+        <v>150</v>
+      </c>
+      <c r="B151" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" t="s">
+        <v>151</v>
+      </c>
+      <c r="B152" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" t="s">
+        <v>152</v>
+      </c>
+      <c r="B153" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" t="s">
+        <v>153</v>
+      </c>
+      <c r="B154" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" t="s">
+        <v>154</v>
+      </c>
+      <c r="B155" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" t="s">
+        <v>155</v>
+      </c>
+      <c r="B156" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" t="s">
+        <v>156</v>
+      </c>
+      <c r="B157" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" t="s">
+        <v>157</v>
+      </c>
+      <c r="B158" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" t="s">
+        <v>158</v>
+      </c>
+      <c r="B159" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" t="s">
+        <v>159</v>
+      </c>
+      <c r="B160" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" t="s">
+        <v>160</v>
+      </c>
+      <c r="B161" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" t="s">
+        <v>161</v>
+      </c>
+      <c r="B162" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" t="s">
+        <v>162</v>
+      </c>
+      <c r="B163" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" t="s">
+        <v>163</v>
+      </c>
+      <c r="B164" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" t="s">
+        <v>164</v>
+      </c>
+      <c r="B165" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" t="s">
+        <v>165</v>
+      </c>
+      <c r="B166" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" t="s">
+        <v>166</v>
+      </c>
+      <c r="B167" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168" t="s">
+        <v>167</v>
+      </c>
+      <c r="B168" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169" t="s">
+        <v>168</v>
+      </c>
+      <c r="B169" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" t="s">
+        <v>169</v>
+      </c>
+      <c r="B170" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" t="s">
+        <v>170</v>
+      </c>
+      <c r="B171" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" t="s">
+        <v>171</v>
+      </c>
+      <c r="B172" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" t="s">
+        <v>172</v>
+      </c>
+      <c r="B173" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174" t="s">
+        <v>173</v>
+      </c>
+      <c r="B174" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175" t="s">
+        <v>174</v>
+      </c>
+      <c r="B175" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176" t="s">
+        <v>175</v>
+      </c>
+      <c r="B176" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177" t="s">
+        <v>176</v>
+      </c>
+      <c r="B177" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178" t="s">
+        <v>177</v>
+      </c>
+      <c r="B178" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179" t="s">
+        <v>178</v>
+      </c>
+      <c r="B179" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180" t="s">
+        <v>179</v>
+      </c>
+      <c r="B180" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181" t="s">
+        <v>180</v>
+      </c>
+      <c r="B181" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182" t="s">
+        <v>181</v>
+      </c>
+      <c r="B182" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
+      <c r="A183" t="s">
+        <v>182</v>
+      </c>
+      <c r="B183" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184" t="s">
+        <v>183</v>
+      </c>
+      <c r="B184" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
+      <c r="A185" t="s">
+        <v>184</v>
+      </c>
+      <c r="B185" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
+      <c r="A186" t="s">
+        <v>185</v>
+      </c>
+      <c r="B186" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187" t="s">
+        <v>186</v>
+      </c>
+      <c r="B187" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188" t="s">
+        <v>187</v>
+      </c>
+      <c r="B188" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189" t="s">
+        <v>188</v>
+      </c>
+      <c r="B189" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
+      <c r="A190" t="s">
+        <v>189</v>
+      </c>
+      <c r="B190" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
+      <c r="A191" t="s">
+        <v>190</v>
+      </c>
+      <c r="B191" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
+      <c r="A192" t="s">
+        <v>191</v>
+      </c>
+      <c r="B192" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2">
+      <c r="A193" t="s">
+        <v>192</v>
+      </c>
+      <c r="B193" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
+      <c r="A194" t="s">
+        <v>193</v>
+      </c>
+      <c r="B194" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2">
+      <c r="A195" t="s">
+        <v>194</v>
+      </c>
+      <c r="B195" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2">
+      <c r="A196" t="s">
+        <v>195</v>
+      </c>
+      <c r="B196" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2">
+      <c r="A197" t="s">
+        <v>196</v>
+      </c>
+      <c r="B197" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2">
+      <c r="A198" t="s">
+        <v>197</v>
+      </c>
+      <c r="B198" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2">
+      <c r="A199" t="s">
+        <v>198</v>
+      </c>
+      <c r="B199" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2">
+      <c r="A200" t="s">
+        <v>199</v>
+      </c>
+      <c r="B200" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2">
+      <c r="A201" t="s">
+        <v>200</v>
+      </c>
+      <c r="B201" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2">
+      <c r="A202" t="s">
+        <v>201</v>
+      </c>
+      <c r="B202" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2">
+      <c r="A203" t="s">
+        <v>202</v>
+      </c>
+      <c r="B203" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2">
+      <c r="A204" t="s">
+        <v>203</v>
+      </c>
+      <c r="B204" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2">
+      <c r="A205" t="s">
+        <v>204</v>
+      </c>
+      <c r="B205" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2">
+      <c r="A206" t="s">
+        <v>205</v>
+      </c>
+      <c r="B206" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2">
+      <c r="A207" t="s">
+        <v>206</v>
+      </c>
+      <c r="B207" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2">
+      <c r="A208" t="s">
+        <v>207</v>
+      </c>
+      <c r="B208" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
+      <c r="A209" t="s">
+        <v>208</v>
+      </c>
+      <c r="B209" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2">
+      <c r="A210" t="s">
+        <v>209</v>
+      </c>
+      <c r="B210" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2">
+      <c r="A211" t="s">
+        <v>210</v>
+      </c>
+      <c r="B211" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2">
+      <c r="A212" t="s">
+        <v>211</v>
+      </c>
+      <c r="B212" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
+      <c r="A213" t="s">
+        <v>212</v>
+      </c>
+      <c r="B213" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2">
+      <c r="A214" t="s">
+        <v>213</v>
+      </c>
+      <c r="B214" t="s">
+        <v>452</v>
       </c>
     </row>
   </sheetData>
@@ -1866,7 +3430,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B107"/>
+  <dimension ref="A1:B214"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1874,858 +3438,1714 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>107</v>
+        <v>214</v>
       </c>
       <c r="B1" t="s">
-        <v>214</v>
+        <v>428</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>108</v>
+        <v>215</v>
       </c>
       <c r="B2" t="s">
-        <v>214</v>
+        <v>428</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>109</v>
+        <v>216</v>
       </c>
       <c r="B3" t="s">
-        <v>214</v>
+        <v>428</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>110</v>
+        <v>217</v>
       </c>
       <c r="B4" t="s">
-        <v>214</v>
+        <v>428</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>111</v>
+        <v>218</v>
       </c>
       <c r="B5" t="s">
-        <v>214</v>
+        <v>428</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>112</v>
+        <v>219</v>
       </c>
       <c r="B6" t="s">
-        <v>214</v>
+        <v>428</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>113</v>
+        <v>220</v>
       </c>
       <c r="B7" t="s">
-        <v>214</v>
+        <v>428</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>114</v>
+        <v>221</v>
       </c>
       <c r="B8" t="s">
-        <v>214</v>
+        <v>428</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>115</v>
+        <v>222</v>
       </c>
       <c r="B9" t="s">
-        <v>214</v>
+        <v>428</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>116</v>
+        <v>223</v>
       </c>
       <c r="B10" t="s">
-        <v>214</v>
+        <v>428</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>117</v>
+        <v>224</v>
       </c>
       <c r="B11" t="s">
-        <v>214</v>
+        <v>428</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>118</v>
+        <v>225</v>
       </c>
       <c r="B12" t="s">
-        <v>214</v>
+        <v>428</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>119</v>
+        <v>226</v>
       </c>
       <c r="B13" t="s">
-        <v>214</v>
+        <v>428</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>120</v>
+        <v>227</v>
       </c>
       <c r="B14" t="s">
-        <v>214</v>
+        <v>428</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>121</v>
+        <v>228</v>
       </c>
       <c r="B15" t="s">
-        <v>214</v>
+        <v>428</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>122</v>
+        <v>229</v>
       </c>
       <c r="B16" t="s">
-        <v>214</v>
+        <v>428</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>123</v>
+        <v>230</v>
       </c>
       <c r="B17" t="s">
-        <v>214</v>
+        <v>428</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>124</v>
+        <v>231</v>
       </c>
       <c r="B18" t="s">
-        <v>214</v>
+        <v>428</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>125</v>
+        <v>232</v>
       </c>
       <c r="B19" t="s">
-        <v>214</v>
+        <v>428</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>126</v>
+        <v>233</v>
       </c>
       <c r="B20" t="s">
-        <v>214</v>
+        <v>428</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>127</v>
+        <v>234</v>
       </c>
       <c r="B21" t="s">
-        <v>214</v>
+        <v>428</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>128</v>
+        <v>235</v>
       </c>
       <c r="B22" t="s">
-        <v>214</v>
+        <v>428</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>129</v>
+        <v>236</v>
       </c>
       <c r="B23" t="s">
-        <v>214</v>
+        <v>428</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>130</v>
+        <v>237</v>
       </c>
       <c r="B24" t="s">
-        <v>215</v>
+        <v>429</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>131</v>
+        <v>238</v>
       </c>
       <c r="B25" t="s">
-        <v>215</v>
+        <v>429</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>132</v>
+        <v>239</v>
       </c>
       <c r="B26" t="s">
-        <v>215</v>
+        <v>429</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>133</v>
+        <v>240</v>
       </c>
       <c r="B27" t="s">
-        <v>215</v>
+        <v>429</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>134</v>
+        <v>241</v>
       </c>
       <c r="B28" t="s">
-        <v>215</v>
+        <v>429</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>135</v>
+        <v>242</v>
       </c>
       <c r="B29" t="s">
-        <v>215</v>
+        <v>429</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>136</v>
+        <v>243</v>
       </c>
       <c r="B30" t="s">
-        <v>215</v>
+        <v>429</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>137</v>
+        <v>244</v>
       </c>
       <c r="B31" t="s">
-        <v>215</v>
+        <v>429</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>138</v>
+        <v>245</v>
       </c>
       <c r="B32" t="s">
-        <v>215</v>
+        <v>429</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>139</v>
+        <v>246</v>
       </c>
       <c r="B33" t="s">
-        <v>215</v>
+        <v>429</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>140</v>
+        <v>247</v>
       </c>
       <c r="B34" t="s">
-        <v>215</v>
+        <v>429</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>141</v>
+        <v>248</v>
       </c>
       <c r="B35" t="s">
-        <v>215</v>
+        <v>429</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>142</v>
+        <v>249</v>
       </c>
       <c r="B36" t="s">
-        <v>215</v>
+        <v>429</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>143</v>
+        <v>250</v>
       </c>
       <c r="B37" t="s">
-        <v>215</v>
+        <v>429</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>144</v>
+        <v>251</v>
       </c>
       <c r="B38" t="s">
-        <v>215</v>
+        <v>429</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>145</v>
+        <v>252</v>
       </c>
       <c r="B39" t="s">
-        <v>215</v>
+        <v>429</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>146</v>
+        <v>253</v>
       </c>
       <c r="B40" t="s">
-        <v>215</v>
+        <v>429</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>147</v>
+        <v>254</v>
       </c>
       <c r="B41" t="s">
-        <v>215</v>
+        <v>429</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>148</v>
+        <v>255</v>
       </c>
       <c r="B42" t="s">
-        <v>215</v>
+        <v>429</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>149</v>
+        <v>256</v>
       </c>
       <c r="B43" t="s">
-        <v>215</v>
+        <v>429</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>150</v>
+        <v>257</v>
       </c>
       <c r="B44" t="s">
-        <v>215</v>
+        <v>429</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>151</v>
+        <v>258</v>
       </c>
       <c r="B45" t="s">
-        <v>216</v>
+        <v>430</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>152</v>
+        <v>259</v>
       </c>
       <c r="B46" t="s">
-        <v>216</v>
+        <v>430</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>153</v>
+        <v>260</v>
       </c>
       <c r="B47" t="s">
-        <v>216</v>
+        <v>430</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>154</v>
+        <v>261</v>
       </c>
       <c r="B48" t="s">
-        <v>216</v>
+        <v>430</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>155</v>
+        <v>262</v>
       </c>
       <c r="B49" t="s">
-        <v>216</v>
+        <v>430</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>156</v>
+        <v>263</v>
       </c>
       <c r="B50" t="s">
-        <v>216</v>
+        <v>430</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>157</v>
+        <v>264</v>
       </c>
       <c r="B51" t="s">
-        <v>216</v>
+        <v>430</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>158</v>
+        <v>265</v>
       </c>
       <c r="B52" t="s">
-        <v>216</v>
+        <v>430</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>159</v>
+        <v>266</v>
       </c>
       <c r="B53" t="s">
-        <v>216</v>
+        <v>430</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>160</v>
+        <v>267</v>
       </c>
       <c r="B54" t="s">
-        <v>216</v>
+        <v>430</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>161</v>
+        <v>268</v>
       </c>
       <c r="B55" t="s">
-        <v>216</v>
+        <v>430</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>162</v>
+        <v>269</v>
       </c>
       <c r="B56" t="s">
-        <v>216</v>
+        <v>430</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>163</v>
+        <v>270</v>
       </c>
       <c r="B57" t="s">
-        <v>216</v>
+        <v>430</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>164</v>
+        <v>271</v>
       </c>
       <c r="B58" t="s">
-        <v>216</v>
+        <v>431</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>165</v>
+        <v>272</v>
       </c>
       <c r="B59" t="s">
-        <v>216</v>
+        <v>431</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>166</v>
+        <v>273</v>
       </c>
       <c r="B60" t="s">
-        <v>216</v>
+        <v>431</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>167</v>
+        <v>274</v>
       </c>
       <c r="B61" t="s">
-        <v>216</v>
+        <v>431</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>168</v>
+        <v>275</v>
       </c>
       <c r="B62" t="s">
-        <v>216</v>
+        <v>431</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>169</v>
+        <v>276</v>
       </c>
       <c r="B63" t="s">
-        <v>216</v>
+        <v>431</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>170</v>
+        <v>277</v>
       </c>
       <c r="B64" t="s">
-        <v>216</v>
+        <v>431</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>171</v>
+        <v>278</v>
       </c>
       <c r="B65" t="s">
-        <v>216</v>
+        <v>431</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>172</v>
+        <v>279</v>
       </c>
       <c r="B66" t="s">
-        <v>216</v>
+        <v>431</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>173</v>
+        <v>280</v>
       </c>
       <c r="B67" t="s">
-        <v>216</v>
+        <v>431</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>174</v>
+        <v>281</v>
       </c>
       <c r="B68" t="s">
-        <v>216</v>
+        <v>431</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>175</v>
+        <v>282</v>
       </c>
       <c r="B69" t="s">
-        <v>216</v>
+        <v>431</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>176</v>
+        <v>283</v>
       </c>
       <c r="B70" t="s">
-        <v>216</v>
+        <v>432</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>177</v>
+        <v>284</v>
       </c>
       <c r="B71" t="s">
-        <v>216</v>
+        <v>432</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>178</v>
+        <v>285</v>
       </c>
       <c r="B72" t="s">
-        <v>216</v>
+        <v>432</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>179</v>
+        <v>286</v>
       </c>
       <c r="B73" t="s">
-        <v>216</v>
+        <v>432</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>180</v>
+        <v>287</v>
       </c>
       <c r="B74" t="s">
-        <v>216</v>
+        <v>432</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>181</v>
+        <v>288</v>
       </c>
       <c r="B75" t="s">
-        <v>216</v>
+        <v>432</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>182</v>
+        <v>289</v>
       </c>
       <c r="B76" t="s">
-        <v>216</v>
+        <v>432</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>183</v>
+        <v>290</v>
       </c>
       <c r="B77" t="s">
-        <v>216</v>
+        <v>433</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>184</v>
+        <v>291</v>
       </c>
       <c r="B78" t="s">
-        <v>216</v>
+        <v>433</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>185</v>
+        <v>292</v>
       </c>
       <c r="B79" t="s">
-        <v>216</v>
+        <v>433</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>186</v>
+        <v>293</v>
       </c>
       <c r="B80" t="s">
-        <v>216</v>
+        <v>433</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>187</v>
+        <v>294</v>
       </c>
       <c r="B81" t="s">
-        <v>216</v>
+        <v>433</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>188</v>
+        <v>295</v>
       </c>
       <c r="B82" t="s">
-        <v>216</v>
+        <v>433</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>189</v>
+        <v>296</v>
       </c>
       <c r="B83" t="s">
-        <v>216</v>
+        <v>434</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>190</v>
+        <v>297</v>
       </c>
       <c r="B84" t="s">
-        <v>216</v>
+        <v>434</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>191</v>
+        <v>298</v>
       </c>
       <c r="B85" t="s">
-        <v>216</v>
+        <v>434</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>192</v>
+        <v>299</v>
       </c>
       <c r="B86" t="s">
-        <v>216</v>
+        <v>434</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>193</v>
+        <v>300</v>
       </c>
       <c r="B87" t="s">
-        <v>216</v>
+        <v>434</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>194</v>
+        <v>301</v>
       </c>
       <c r="B88" t="s">
-        <v>216</v>
+        <v>434</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>195</v>
+        <v>302</v>
       </c>
       <c r="B89" t="s">
-        <v>216</v>
+        <v>435</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>196</v>
+        <v>303</v>
       </c>
       <c r="B90" t="s">
-        <v>216</v>
+        <v>435</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>197</v>
+        <v>304</v>
       </c>
       <c r="B91" t="s">
-        <v>216</v>
+        <v>435</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>198</v>
+        <v>305</v>
       </c>
       <c r="B92" t="s">
-        <v>216</v>
+        <v>435</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>199</v>
+        <v>306</v>
       </c>
       <c r="B93" t="s">
-        <v>216</v>
+        <v>435</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>200</v>
+        <v>307</v>
       </c>
       <c r="B94" t="s">
-        <v>216</v>
+        <v>435</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>201</v>
+        <v>308</v>
       </c>
       <c r="B95" t="s">
-        <v>216</v>
+        <v>435</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>202</v>
+        <v>309</v>
       </c>
       <c r="B96" t="s">
-        <v>216</v>
+        <v>435</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>203</v>
+        <v>310</v>
       </c>
       <c r="B97" t="s">
-        <v>216</v>
+        <v>435</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>204</v>
+        <v>311</v>
       </c>
       <c r="B98" t="s">
-        <v>216</v>
+        <v>435</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>205</v>
+        <v>312</v>
       </c>
       <c r="B99" t="s">
-        <v>216</v>
+        <v>435</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>206</v>
+        <v>313</v>
       </c>
       <c r="B100" t="s">
-        <v>216</v>
+        <v>435</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>207</v>
+        <v>314</v>
       </c>
       <c r="B101" t="s">
-        <v>216</v>
+        <v>435</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>208</v>
+        <v>315</v>
       </c>
       <c r="B102" t="s">
-        <v>216</v>
+        <v>435</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>209</v>
+        <v>316</v>
       </c>
       <c r="B103" t="s">
-        <v>216</v>
+        <v>435</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>210</v>
+        <v>317</v>
       </c>
       <c r="B104" t="s">
-        <v>216</v>
+        <v>435</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>211</v>
+        <v>318</v>
       </c>
       <c r="B105" t="s">
-        <v>216</v>
+        <v>436</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>212</v>
+        <v>319</v>
       </c>
       <c r="B106" t="s">
-        <v>216</v>
+        <v>436</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>213</v>
+        <v>320</v>
       </c>
       <c r="B107" t="s">
-        <v>216</v>
+        <v>436</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" t="s">
+        <v>321</v>
+      </c>
+      <c r="B108" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" t="s">
+        <v>322</v>
+      </c>
+      <c r="B109" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" t="s">
+        <v>323</v>
+      </c>
+      <c r="B110" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" t="s">
+        <v>324</v>
+      </c>
+      <c r="B111" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" t="s">
+        <v>325</v>
+      </c>
+      <c r="B112" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" t="s">
+        <v>326</v>
+      </c>
+      <c r="B113" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" t="s">
+        <v>327</v>
+      </c>
+      <c r="B114" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" t="s">
+        <v>328</v>
+      </c>
+      <c r="B115" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" t="s">
+        <v>329</v>
+      </c>
+      <c r="B116" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" t="s">
+        <v>330</v>
+      </c>
+      <c r="B117" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" t="s">
+        <v>331</v>
+      </c>
+      <c r="B118" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" t="s">
+        <v>332</v>
+      </c>
+      <c r="B119" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" t="s">
+        <v>333</v>
+      </c>
+      <c r="B120" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" t="s">
+        <v>334</v>
+      </c>
+      <c r="B121" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" t="s">
+        <v>335</v>
+      </c>
+      <c r="B122" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" t="s">
+        <v>336</v>
+      </c>
+      <c r="B123" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" t="s">
+        <v>337</v>
+      </c>
+      <c r="B124" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" t="s">
+        <v>338</v>
+      </c>
+      <c r="B125" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" t="s">
+        <v>339</v>
+      </c>
+      <c r="B126" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" t="s">
+        <v>340</v>
+      </c>
+      <c r="B127" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" t="s">
+        <v>341</v>
+      </c>
+      <c r="B128" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" t="s">
+        <v>342</v>
+      </c>
+      <c r="B129" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" t="s">
+        <v>343</v>
+      </c>
+      <c r="B130" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" t="s">
+        <v>344</v>
+      </c>
+      <c r="B131" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" t="s">
+        <v>345</v>
+      </c>
+      <c r="B132" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" t="s">
+        <v>346</v>
+      </c>
+      <c r="B133" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" t="s">
+        <v>347</v>
+      </c>
+      <c r="B134" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" t="s">
+        <v>348</v>
+      </c>
+      <c r="B135" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" t="s">
+        <v>349</v>
+      </c>
+      <c r="B136" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" t="s">
+        <v>350</v>
+      </c>
+      <c r="B137" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" t="s">
+        <v>351</v>
+      </c>
+      <c r="B138" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" t="s">
+        <v>352</v>
+      </c>
+      <c r="B139" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" t="s">
+        <v>353</v>
+      </c>
+      <c r="B140" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" t="s">
+        <v>354</v>
+      </c>
+      <c r="B141" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" t="s">
+        <v>355</v>
+      </c>
+      <c r="B142" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" t="s">
+        <v>356</v>
+      </c>
+      <c r="B143" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" t="s">
+        <v>357</v>
+      </c>
+      <c r="B144" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" t="s">
+        <v>358</v>
+      </c>
+      <c r="B145" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" t="s">
+        <v>359</v>
+      </c>
+      <c r="B146" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" t="s">
+        <v>360</v>
+      </c>
+      <c r="B147" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" t="s">
+        <v>361</v>
+      </c>
+      <c r="B148" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" t="s">
+        <v>362</v>
+      </c>
+      <c r="B149" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" t="s">
+        <v>363</v>
+      </c>
+      <c r="B150" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" t="s">
+        <v>364</v>
+      </c>
+      <c r="B151" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" t="s">
+        <v>365</v>
+      </c>
+      <c r="B152" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" t="s">
+        <v>366</v>
+      </c>
+      <c r="B153" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" t="s">
+        <v>367</v>
+      </c>
+      <c r="B154" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" t="s">
+        <v>368</v>
+      </c>
+      <c r="B155" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" t="s">
+        <v>369</v>
+      </c>
+      <c r="B156" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" t="s">
+        <v>370</v>
+      </c>
+      <c r="B157" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" t="s">
+        <v>371</v>
+      </c>
+      <c r="B158" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" t="s">
+        <v>372</v>
+      </c>
+      <c r="B159" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" t="s">
+        <v>373</v>
+      </c>
+      <c r="B160" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" t="s">
+        <v>374</v>
+      </c>
+      <c r="B161" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" t="s">
+        <v>375</v>
+      </c>
+      <c r="B162" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" t="s">
+        <v>376</v>
+      </c>
+      <c r="B163" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" t="s">
+        <v>377</v>
+      </c>
+      <c r="B164" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" t="s">
+        <v>378</v>
+      </c>
+      <c r="B165" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" t="s">
+        <v>379</v>
+      </c>
+      <c r="B166" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" t="s">
+        <v>380</v>
+      </c>
+      <c r="B167" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168" t="s">
+        <v>381</v>
+      </c>
+      <c r="B168" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169" t="s">
+        <v>382</v>
+      </c>
+      <c r="B169" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" t="s">
+        <v>383</v>
+      </c>
+      <c r="B170" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" t="s">
+        <v>384</v>
+      </c>
+      <c r="B171" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" t="s">
+        <v>385</v>
+      </c>
+      <c r="B172" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" t="s">
+        <v>386</v>
+      </c>
+      <c r="B173" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174" t="s">
+        <v>387</v>
+      </c>
+      <c r="B174" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175" t="s">
+        <v>388</v>
+      </c>
+      <c r="B175" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176" t="s">
+        <v>389</v>
+      </c>
+      <c r="B176" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177" t="s">
+        <v>390</v>
+      </c>
+      <c r="B177" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178" t="s">
+        <v>391</v>
+      </c>
+      <c r="B178" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179" t="s">
+        <v>392</v>
+      </c>
+      <c r="B179" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180" t="s">
+        <v>393</v>
+      </c>
+      <c r="B180" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181" t="s">
+        <v>394</v>
+      </c>
+      <c r="B181" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182" t="s">
+        <v>395</v>
+      </c>
+      <c r="B182" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
+      <c r="A183" t="s">
+        <v>396</v>
+      </c>
+      <c r="B183" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184" t="s">
+        <v>397</v>
+      </c>
+      <c r="B184" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
+      <c r="A185" t="s">
+        <v>398</v>
+      </c>
+      <c r="B185" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
+      <c r="A186" t="s">
+        <v>399</v>
+      </c>
+      <c r="B186" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187" t="s">
+        <v>400</v>
+      </c>
+      <c r="B187" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188" t="s">
+        <v>401</v>
+      </c>
+      <c r="B188" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189" t="s">
+        <v>402</v>
+      </c>
+      <c r="B189" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
+      <c r="A190" t="s">
+        <v>403</v>
+      </c>
+      <c r="B190" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
+      <c r="A191" t="s">
+        <v>404</v>
+      </c>
+      <c r="B191" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
+      <c r="A192" t="s">
+        <v>405</v>
+      </c>
+      <c r="B192" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2">
+      <c r="A193" t="s">
+        <v>406</v>
+      </c>
+      <c r="B193" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
+      <c r="A194" t="s">
+        <v>407</v>
+      </c>
+      <c r="B194" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2">
+      <c r="A195" t="s">
+        <v>408</v>
+      </c>
+      <c r="B195" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2">
+      <c r="A196" t="s">
+        <v>409</v>
+      </c>
+      <c r="B196" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2">
+      <c r="A197" t="s">
+        <v>410</v>
+      </c>
+      <c r="B197" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2">
+      <c r="A198" t="s">
+        <v>411</v>
+      </c>
+      <c r="B198" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2">
+      <c r="A199" t="s">
+        <v>412</v>
+      </c>
+      <c r="B199" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2">
+      <c r="A200" t="s">
+        <v>413</v>
+      </c>
+      <c r="B200" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2">
+      <c r="A201" t="s">
+        <v>414</v>
+      </c>
+      <c r="B201" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2">
+      <c r="A202" t="s">
+        <v>415</v>
+      </c>
+      <c r="B202" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2">
+      <c r="A203" t="s">
+        <v>416</v>
+      </c>
+      <c r="B203" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2">
+      <c r="A204" t="s">
+        <v>417</v>
+      </c>
+      <c r="B204" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2">
+      <c r="A205" t="s">
+        <v>418</v>
+      </c>
+      <c r="B205" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2">
+      <c r="A206" t="s">
+        <v>419</v>
+      </c>
+      <c r="B206" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2">
+      <c r="A207" t="s">
+        <v>420</v>
+      </c>
+      <c r="B207" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2">
+      <c r="A208" t="s">
+        <v>421</v>
+      </c>
+      <c r="B208" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
+      <c r="A209" t="s">
+        <v>422</v>
+      </c>
+      <c r="B209" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2">
+      <c r="A210" t="s">
+        <v>423</v>
+      </c>
+      <c r="B210" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2">
+      <c r="A211" t="s">
+        <v>424</v>
+      </c>
+      <c r="B211" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2">
+      <c r="A212" t="s">
+        <v>425</v>
+      </c>
+      <c r="B212" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
+      <c r="A213" t="s">
+        <v>426</v>
+      </c>
+      <c r="B213" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2">
+      <c r="A214" t="s">
+        <v>427</v>
+      </c>
+      <c r="B214" t="s">
+        <v>452</v>
       </c>
     </row>
   </sheetData>

--- a/ENGIN_X_DATA_CLEANING/Filenames.xlsx
+++ b/ENGIN_X_DATA_CLEANING/Filenames.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="501">
   <si>
     <t>NG45688.RAW</t>
   </si>
@@ -134,6 +134,30 @@
     <t>Jaws2_V.txt</t>
   </si>
   <si>
+    <t>C6_MASTER_FREQUENCY.txt</t>
+  </si>
+  <si>
+    <t>C6_MASTER_PHASE.txt</t>
+  </si>
+  <si>
+    <t>C6_SLAVE_FREQUENCY.txt</t>
+  </si>
+  <si>
+    <t>C6_SLAVE_PHASE.txt</t>
+  </si>
+  <si>
+    <t>C9_MASTER_FREQUENCY.txt</t>
+  </si>
+  <si>
+    <t>C9_MASTER_PHASE.txt</t>
+  </si>
+  <si>
+    <t>C9_SLAVE_FREQUENCY.txt</t>
+  </si>
+  <si>
+    <t>C9_SLAVE_PHASE.txt</t>
+  </si>
+  <si>
     <t>crosshead_pos.txt</t>
   </si>
   <si>
@@ -188,6 +212,30 @@
     <t>furnace_pwr.txt</t>
   </si>
   <si>
+    <t>C6_MASTER_FREQUENCY.txt-1.txt</t>
+  </si>
+  <si>
+    <t>C6_MASTER_PHASE.txt-1.txt</t>
+  </si>
+  <si>
+    <t>C6_SLAVE_FREQUENCY.txt-1.txt</t>
+  </si>
+  <si>
+    <t>C6_SLAVE_PHASE.txt-1.txt</t>
+  </si>
+  <si>
+    <t>C9_MASTER_FREQUENCY.txt-1.txt</t>
+  </si>
+  <si>
+    <t>C9_MASTER_PHASE.txt-1.txt</t>
+  </si>
+  <si>
+    <t>C9_SLAVE_FREQUENCY.txt-1.txt</t>
+  </si>
+  <si>
+    <t>C9_SLAVE_PHASE.txt-1.txt</t>
+  </si>
+  <si>
     <t>crosshead_pos.txt-1.txt</t>
   </si>
   <si>
@@ -455,6 +503,30 @@
     <t>ICPputlog.txt</t>
   </si>
   <si>
+    <t>C6_master_freq.txt</t>
+  </si>
+  <si>
+    <t>C6_master_phase.txt</t>
+  </si>
+  <si>
+    <t>C6_slave_freq.txt</t>
+  </si>
+  <si>
+    <t>C6_slave_phase.txt</t>
+  </si>
+  <si>
+    <t>C9_master_freq.txt</t>
+  </si>
+  <si>
+    <t>C9_master_phase.txt</t>
+  </si>
+  <si>
+    <t>C9_slave_freq.txt</t>
+  </si>
+  <si>
+    <t>C9_slave_phase.txt</t>
+  </si>
+  <si>
     <t>jaws1_hgap.txt</t>
   </si>
   <si>
@@ -776,6 +848,30 @@
     <t>ENGINX00205482_Jaws2_V.txt</t>
   </si>
   <si>
+    <t>ENGINX00205710_C6_MASTER_FREQUENCY.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00205710_C6_MASTER_PHASE.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00205710_C6_SLAVE_FREQUENCY.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00205710_C6_SLAVE_PHASE.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00205710_C9_MASTER_FREQUENCY.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00205710_C9_MASTER_PHASE.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00205710_C9_SLAVE_FREQUENCY.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00205710_C9_SLAVE_PHASE.txt</t>
+  </si>
+  <si>
     <t>ENGINX00205710_crosshead_pos.txt</t>
   </si>
   <si>
@@ -830,6 +926,30 @@
     <t>ENGINX00206374_furnace_pwr.txt</t>
   </si>
   <si>
+    <t>ENGINX00210605_C6_MASTER_FREQUENCY.txt-1.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00210605_C6_MASTER_PHASE.txt-1.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00210605_C6_SLAVE_FREQUENCY.txt-1.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00210605_C6_SLAVE_PHASE.txt-1.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00210605_C9_MASTER_FREQUENCY.txt-1.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00210605_C9_MASTER_PHASE.txt-1.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00210605_C9_SLAVE_FREQUENCY.txt-1.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00210605_C9_SLAVE_PHASE.txt-1.txt</t>
+  </si>
+  <si>
     <t>ENGINX00210605_crosshead_pos.txt-1.txt</t>
   </si>
   <si>
@@ -1095,6 +1215,30 @@
   </si>
   <si>
     <t>ENGINX00275375_ICPputlog.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00275777_C6_master_freq.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00275777_C6_master_phase.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00275777_C6_slave_freq.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00275777_C6_slave_phase.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00275777_C9_master_freq.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00275777_C9_master_phase.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00275777_C9_slave_freq.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00275777_C9_slave_phase.txt</t>
   </si>
   <si>
     <t>ENGINX00275777_jaws1_hgap.txt</t>
@@ -1705,7 +1849,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B214"/>
+  <dimension ref="A1:B238"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1716,7 +1860,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>428</v>
+        <v>476</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1724,7 +1868,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>428</v>
+        <v>476</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1732,7 +1876,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>428</v>
+        <v>476</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1740,7 +1884,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>428</v>
+        <v>476</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1748,7 +1892,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>428</v>
+        <v>476</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1756,7 +1900,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>428</v>
+        <v>476</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1764,7 +1908,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>428</v>
+        <v>476</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1772,7 +1916,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>428</v>
+        <v>476</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1780,7 +1924,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>428</v>
+        <v>476</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1788,7 +1932,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>428</v>
+        <v>476</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1796,7 +1940,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>428</v>
+        <v>476</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1804,7 +1948,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>428</v>
+        <v>476</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1812,7 +1956,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>428</v>
+        <v>476</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1820,7 +1964,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>428</v>
+        <v>476</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1828,7 +1972,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>428</v>
+        <v>476</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1836,7 +1980,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>428</v>
+        <v>476</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1844,7 +1988,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>428</v>
+        <v>476</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1852,7 +1996,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>428</v>
+        <v>476</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1860,7 +2004,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>428</v>
+        <v>476</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1868,7 +2012,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>428</v>
+        <v>476</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1876,7 +2020,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>428</v>
+        <v>476</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1884,7 +2028,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>428</v>
+        <v>476</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1892,7 +2036,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>428</v>
+        <v>476</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1900,7 +2044,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>429</v>
+        <v>477</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1908,7 +2052,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>429</v>
+        <v>477</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1916,7 +2060,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>429</v>
+        <v>477</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1924,7 +2068,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>429</v>
+        <v>477</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1932,7 +2076,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>429</v>
+        <v>477</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1940,7 +2084,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>429</v>
+        <v>477</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1948,7 +2092,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>429</v>
+        <v>477</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1956,7 +2100,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>429</v>
+        <v>477</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1964,7 +2108,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>429</v>
+        <v>477</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1972,7 +2116,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>429</v>
+        <v>477</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1980,7 +2124,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>429</v>
+        <v>477</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1988,7 +2132,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>429</v>
+        <v>477</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1996,7 +2140,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>429</v>
+        <v>477</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -2004,7 +2148,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>429</v>
+        <v>477</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -2012,7 +2156,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>429</v>
+        <v>477</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -2020,7 +2164,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>429</v>
+        <v>477</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -2028,7 +2172,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>429</v>
+        <v>477</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -2036,7 +2180,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>429</v>
+        <v>477</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -2044,7 +2188,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>429</v>
+        <v>477</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -2052,7 +2196,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>429</v>
+        <v>477</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -2060,7 +2204,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>429</v>
+        <v>477</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -2068,7 +2212,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>430</v>
+        <v>477</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -2076,7 +2220,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>430</v>
+        <v>477</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -2084,7 +2228,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>430</v>
+        <v>477</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -2092,7 +2236,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>430</v>
+        <v>477</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -2100,7 +2244,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>430</v>
+        <v>477</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -2108,7 +2252,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>430</v>
+        <v>477</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -2116,7 +2260,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>430</v>
+        <v>477</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -2124,7 +2268,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>430</v>
+        <v>477</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -2132,7 +2276,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>430</v>
+        <v>478</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -2140,7 +2284,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>430</v>
+        <v>478</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -2148,7 +2292,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>430</v>
+        <v>478</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -2156,7 +2300,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>430</v>
+        <v>478</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -2164,7 +2308,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>430</v>
+        <v>478</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -2172,7 +2316,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>431</v>
+        <v>478</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -2180,7 +2324,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>431</v>
+        <v>478</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -2188,7 +2332,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>431</v>
+        <v>478</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -2196,7 +2340,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>431</v>
+        <v>478</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -2204,7 +2348,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>431</v>
+        <v>478</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -2212,7 +2356,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>431</v>
+        <v>478</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -2220,7 +2364,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>431</v>
+        <v>478</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -2228,7 +2372,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>431</v>
+        <v>478</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -2236,7 +2380,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>431</v>
+        <v>479</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -2244,7 +2388,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>431</v>
+        <v>479</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -2252,7 +2396,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>431</v>
+        <v>479</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -2260,7 +2404,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>431</v>
+        <v>479</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -2268,7 +2412,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>432</v>
+        <v>479</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -2276,7 +2420,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>432</v>
+        <v>479</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -2284,7 +2428,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>432</v>
+        <v>479</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -2292,7 +2436,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>432</v>
+        <v>479</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -2300,7 +2444,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>432</v>
+        <v>479</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -2308,7 +2452,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>432</v>
+        <v>479</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -2316,7 +2460,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>432</v>
+        <v>479</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -2324,7 +2468,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>433</v>
+        <v>479</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -2332,7 +2476,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>433</v>
+        <v>479</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -2340,7 +2484,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>433</v>
+        <v>479</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -2348,7 +2492,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>433</v>
+        <v>479</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -2356,7 +2500,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>433</v>
+        <v>479</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -2364,7 +2508,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>433</v>
+        <v>479</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -2372,7 +2516,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>434</v>
+        <v>479</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -2380,7 +2524,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>434</v>
+        <v>479</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -2388,7 +2532,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>434</v>
+        <v>479</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -2396,7 +2540,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>434</v>
+        <v>480</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -2404,7 +2548,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>434</v>
+        <v>480</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -2412,7 +2556,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>434</v>
+        <v>480</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -2420,7 +2564,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>435</v>
+        <v>480</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -2428,7 +2572,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>435</v>
+        <v>480</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -2436,7 +2580,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>435</v>
+        <v>480</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -2444,7 +2588,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>435</v>
+        <v>480</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -2452,7 +2596,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>435</v>
+        <v>481</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -2460,7 +2604,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>435</v>
+        <v>481</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -2468,7 +2612,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>435</v>
+        <v>481</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -2476,7 +2620,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>435</v>
+        <v>481</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -2484,7 +2628,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>435</v>
+        <v>481</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -2492,7 +2636,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>435</v>
+        <v>481</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -2500,7 +2644,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>435</v>
+        <v>482</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -2508,7 +2652,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>435</v>
+        <v>482</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -2516,7 +2660,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>435</v>
+        <v>482</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -2524,7 +2668,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>435</v>
+        <v>482</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -2532,7 +2676,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>435</v>
+        <v>482</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -2540,7 +2684,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>435</v>
+        <v>482</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -2548,7 +2692,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>436</v>
+        <v>483</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -2556,7 +2700,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>436</v>
+        <v>483</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -2564,7 +2708,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>436</v>
+        <v>483</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -2572,7 +2716,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>436</v>
+        <v>483</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -2580,7 +2724,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>436</v>
+        <v>483</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -2588,7 +2732,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>436</v>
+        <v>483</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -2596,7 +2740,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>436</v>
+        <v>483</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -2604,7 +2748,7 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>436</v>
+        <v>483</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -2612,7 +2756,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>436</v>
+        <v>483</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -2620,7 +2764,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>436</v>
+        <v>483</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -2628,7 +2772,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>436</v>
+        <v>483</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -2636,7 +2780,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>436</v>
+        <v>483</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -2644,7 +2788,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>436</v>
+        <v>483</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -2652,7 +2796,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>437</v>
+        <v>483</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -2660,7 +2804,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>437</v>
+        <v>483</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -2668,7 +2812,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>438</v>
+        <v>483</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -2676,7 +2820,7 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>438</v>
+        <v>484</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -2684,7 +2828,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>438</v>
+        <v>484</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -2692,7 +2836,7 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>438</v>
+        <v>484</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -2700,7 +2844,7 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>438</v>
+        <v>484</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -2708,7 +2852,7 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>439</v>
+        <v>484</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -2716,7 +2860,7 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>439</v>
+        <v>484</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -2724,7 +2868,7 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -2732,7 +2876,7 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>441</v>
+        <v>484</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -2740,7 +2884,7 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>441</v>
+        <v>484</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -2748,7 +2892,7 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>441</v>
+        <v>484</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -2756,7 +2900,7 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>441</v>
+        <v>484</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -2764,7 +2908,7 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>441</v>
+        <v>484</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -2772,7 +2916,7 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>441</v>
+        <v>484</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -2780,7 +2924,7 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>441</v>
+        <v>485</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -2788,7 +2932,7 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>441</v>
+        <v>485</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -2796,7 +2940,7 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>441</v>
+        <v>486</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -2804,7 +2948,7 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>442</v>
+        <v>486</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -2812,7 +2956,7 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>442</v>
+        <v>486</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -2820,7 +2964,7 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>443</v>
+        <v>486</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -2828,7 +2972,7 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>444</v>
+        <v>486</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -2836,7 +2980,7 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>444</v>
+        <v>487</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -2844,7 +2988,7 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>444</v>
+        <v>487</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -2852,7 +2996,7 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>445</v>
+        <v>488</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -2860,7 +3004,7 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>445</v>
+        <v>489</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -2868,7 +3012,7 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>445</v>
+        <v>489</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -2876,7 +3020,7 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>446</v>
+        <v>489</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -2884,7 +3028,7 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>446</v>
+        <v>489</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -2892,7 +3036,7 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>446</v>
+        <v>489</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -2900,7 +3044,7 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>446</v>
+        <v>489</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -2908,7 +3052,7 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>446</v>
+        <v>489</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -2916,7 +3060,7 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>446</v>
+        <v>489</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -2924,7 +3068,7 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>446</v>
+        <v>489</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -2932,7 +3076,7 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>446</v>
+        <v>490</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -2940,7 +3084,7 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>446</v>
+        <v>490</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -2948,7 +3092,7 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>446</v>
+        <v>491</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -2956,7 +3100,7 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>446</v>
+        <v>492</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -2964,7 +3108,7 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>446</v>
+        <v>492</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -2972,7 +3116,7 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>446</v>
+        <v>492</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -2980,7 +3124,7 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>446</v>
+        <v>493</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -2988,7 +3132,7 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>446</v>
+        <v>493</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -2996,7 +3140,7 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>446</v>
+        <v>493</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -3004,7 +3148,7 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>446</v>
+        <v>494</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -3012,7 +3156,7 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>446</v>
+        <v>494</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -3020,7 +3164,7 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>446</v>
+        <v>494</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -3028,7 +3172,7 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>446</v>
+        <v>494</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -3036,7 +3180,7 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>446</v>
+        <v>494</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -3044,7 +3188,7 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>446</v>
+        <v>494</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -3052,7 +3196,7 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>446</v>
+        <v>494</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -3060,7 +3204,7 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>446</v>
+        <v>494</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -3068,7 +3212,7 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>446</v>
+        <v>494</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -3076,7 +3220,7 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>446</v>
+        <v>494</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -3084,7 +3228,7 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>446</v>
+        <v>494</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -3092,7 +3236,7 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>446</v>
+        <v>494</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -3100,7 +3244,7 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>446</v>
+        <v>494</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -3108,7 +3252,7 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>446</v>
+        <v>494</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -3116,7 +3260,7 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>446</v>
+        <v>494</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -3124,7 +3268,7 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>446</v>
+        <v>494</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -3132,7 +3276,7 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>446</v>
+        <v>494</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -3140,7 +3284,7 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>446</v>
+        <v>494</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -3148,7 +3292,7 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>446</v>
+        <v>494</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -3156,7 +3300,7 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>446</v>
+        <v>494</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -3164,7 +3308,7 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>446</v>
+        <v>494</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -3172,7 +3316,7 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>446</v>
+        <v>494</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -3180,7 +3324,7 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>446</v>
+        <v>494</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -3188,7 +3332,7 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>446</v>
+        <v>494</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -3196,7 +3340,7 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>446</v>
+        <v>494</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -3204,7 +3348,7 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>446</v>
+        <v>494</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -3212,7 +3356,7 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>446</v>
+        <v>494</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -3220,7 +3364,7 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>446</v>
+        <v>494</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -3228,7 +3372,7 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>447</v>
+        <v>494</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -3236,7 +3380,7 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>447</v>
+        <v>494</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -3244,7 +3388,7 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>448</v>
+        <v>494</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -3252,7 +3396,7 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>448</v>
+        <v>494</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -3260,7 +3404,7 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>449</v>
+        <v>494</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -3268,7 +3412,7 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>449</v>
+        <v>494</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -3276,7 +3420,7 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>449</v>
+        <v>494</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -3284,7 +3428,7 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>449</v>
+        <v>494</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -3292,7 +3436,7 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>449</v>
+        <v>494</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -3300,7 +3444,7 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>449</v>
+        <v>494</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -3308,7 +3452,7 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>449</v>
+        <v>494</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -3316,7 +3460,7 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>449</v>
+        <v>494</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -3324,7 +3468,7 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>449</v>
+        <v>494</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -3332,7 +3476,7 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>449</v>
+        <v>494</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -3340,7 +3484,7 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>449</v>
+        <v>494</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -3348,7 +3492,7 @@
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>449</v>
+        <v>494</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -3356,7 +3500,7 @@
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>450</v>
+        <v>494</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -3364,7 +3508,7 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>450</v>
+        <v>494</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -3372,7 +3516,7 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>450</v>
+        <v>494</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -3380,7 +3524,7 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>450</v>
+        <v>494</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -3388,7 +3532,7 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>450</v>
+        <v>494</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -3396,7 +3540,7 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>451</v>
+        <v>494</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -3404,7 +3548,7 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>451</v>
+        <v>494</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -3412,7 +3556,7 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>452</v>
+        <v>494</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -3420,7 +3564,199 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>452</v>
+        <v>495</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2">
+      <c r="A215" t="s">
+        <v>214</v>
+      </c>
+      <c r="B215" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2">
+      <c r="A216" t="s">
+        <v>215</v>
+      </c>
+      <c r="B216" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2">
+      <c r="A217" t="s">
+        <v>216</v>
+      </c>
+      <c r="B217" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2">
+      <c r="A218" t="s">
+        <v>217</v>
+      </c>
+      <c r="B218" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2">
+      <c r="A219" t="s">
+        <v>218</v>
+      </c>
+      <c r="B219" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2">
+      <c r="A220" t="s">
+        <v>219</v>
+      </c>
+      <c r="B220" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2">
+      <c r="A221" t="s">
+        <v>220</v>
+      </c>
+      <c r="B221" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2">
+      <c r="A222" t="s">
+        <v>221</v>
+      </c>
+      <c r="B222" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2">
+      <c r="A223" t="s">
+        <v>222</v>
+      </c>
+      <c r="B223" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2">
+      <c r="A224" t="s">
+        <v>223</v>
+      </c>
+      <c r="B224" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2">
+      <c r="A225" t="s">
+        <v>224</v>
+      </c>
+      <c r="B225" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2">
+      <c r="A226" t="s">
+        <v>225</v>
+      </c>
+      <c r="B226" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2">
+      <c r="A227" t="s">
+        <v>226</v>
+      </c>
+      <c r="B227" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2">
+      <c r="A228" t="s">
+        <v>227</v>
+      </c>
+      <c r="B228" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2">
+      <c r="A229" t="s">
+        <v>228</v>
+      </c>
+      <c r="B229" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2">
+      <c r="A230" t="s">
+        <v>229</v>
+      </c>
+      <c r="B230" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2">
+      <c r="A231" t="s">
+        <v>230</v>
+      </c>
+      <c r="B231" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2">
+      <c r="A232" t="s">
+        <v>231</v>
+      </c>
+      <c r="B232" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2">
+      <c r="A233" t="s">
+        <v>232</v>
+      </c>
+      <c r="B233" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2">
+      <c r="A234" t="s">
+        <v>233</v>
+      </c>
+      <c r="B234" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2">
+      <c r="A235" t="s">
+        <v>234</v>
+      </c>
+      <c r="B235" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2">
+      <c r="A236" t="s">
+        <v>235</v>
+      </c>
+      <c r="B236" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2">
+      <c r="A237" t="s">
+        <v>236</v>
+      </c>
+      <c r="B237" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2">
+      <c r="A238" t="s">
+        <v>237</v>
+      </c>
+      <c r="B238" t="s">
+        <v>500</v>
       </c>
     </row>
   </sheetData>
@@ -3430,7 +3766,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B214"/>
+  <dimension ref="A1:B238"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3438,1714 +3774,1906 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>214</v>
+        <v>238</v>
       </c>
       <c r="B1" t="s">
-        <v>428</v>
+        <v>476</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>215</v>
+        <v>239</v>
       </c>
       <c r="B2" t="s">
-        <v>428</v>
+        <v>476</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="B3" t="s">
-        <v>428</v>
+        <v>476</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>217</v>
+        <v>241</v>
       </c>
       <c r="B4" t="s">
-        <v>428</v>
+        <v>476</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>218</v>
+        <v>242</v>
       </c>
       <c r="B5" t="s">
-        <v>428</v>
+        <v>476</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>219</v>
+        <v>243</v>
       </c>
       <c r="B6" t="s">
-        <v>428</v>
+        <v>476</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>220</v>
+        <v>244</v>
       </c>
       <c r="B7" t="s">
-        <v>428</v>
+        <v>476</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>221</v>
+        <v>245</v>
       </c>
       <c r="B8" t="s">
-        <v>428</v>
+        <v>476</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>222</v>
+        <v>246</v>
       </c>
       <c r="B9" t="s">
-        <v>428</v>
+        <v>476</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="B10" t="s">
-        <v>428</v>
+        <v>476</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>224</v>
+        <v>248</v>
       </c>
       <c r="B11" t="s">
-        <v>428</v>
+        <v>476</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>225</v>
+        <v>249</v>
       </c>
       <c r="B12" t="s">
-        <v>428</v>
+        <v>476</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>226</v>
+        <v>250</v>
       </c>
       <c r="B13" t="s">
-        <v>428</v>
+        <v>476</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>227</v>
+        <v>251</v>
       </c>
       <c r="B14" t="s">
-        <v>428</v>
+        <v>476</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>228</v>
+        <v>252</v>
       </c>
       <c r="B15" t="s">
-        <v>428</v>
+        <v>476</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>229</v>
+        <v>253</v>
       </c>
       <c r="B16" t="s">
-        <v>428</v>
+        <v>476</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>230</v>
+        <v>254</v>
       </c>
       <c r="B17" t="s">
-        <v>428</v>
+        <v>476</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="B18" t="s">
-        <v>428</v>
+        <v>476</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>232</v>
+        <v>256</v>
       </c>
       <c r="B19" t="s">
-        <v>428</v>
+        <v>476</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>233</v>
+        <v>257</v>
       </c>
       <c r="B20" t="s">
-        <v>428</v>
+        <v>476</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>234</v>
+        <v>258</v>
       </c>
       <c r="B21" t="s">
-        <v>428</v>
+        <v>476</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>235</v>
+        <v>259</v>
       </c>
       <c r="B22" t="s">
-        <v>428</v>
+        <v>476</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="B23" t="s">
-        <v>428</v>
+        <v>476</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>237</v>
+        <v>261</v>
       </c>
       <c r="B24" t="s">
-        <v>429</v>
+        <v>477</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>238</v>
+        <v>262</v>
       </c>
       <c r="B25" t="s">
-        <v>429</v>
+        <v>477</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="B26" t="s">
-        <v>429</v>
+        <v>477</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>240</v>
+        <v>264</v>
       </c>
       <c r="B27" t="s">
-        <v>429</v>
+        <v>477</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>241</v>
+        <v>265</v>
       </c>
       <c r="B28" t="s">
-        <v>429</v>
+        <v>477</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>242</v>
+        <v>266</v>
       </c>
       <c r="B29" t="s">
-        <v>429</v>
+        <v>477</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>243</v>
+        <v>267</v>
       </c>
       <c r="B30" t="s">
-        <v>429</v>
+        <v>477</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>244</v>
+        <v>268</v>
       </c>
       <c r="B31" t="s">
-        <v>429</v>
+        <v>477</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>245</v>
+        <v>269</v>
       </c>
       <c r="B32" t="s">
-        <v>429</v>
+        <v>477</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>246</v>
+        <v>270</v>
       </c>
       <c r="B33" t="s">
-        <v>429</v>
+        <v>477</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>247</v>
+        <v>271</v>
       </c>
       <c r="B34" t="s">
-        <v>429</v>
+        <v>477</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>248</v>
+        <v>272</v>
       </c>
       <c r="B35" t="s">
-        <v>429</v>
+        <v>477</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>249</v>
+        <v>273</v>
       </c>
       <c r="B36" t="s">
-        <v>429</v>
+        <v>477</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>250</v>
+        <v>274</v>
       </c>
       <c r="B37" t="s">
-        <v>429</v>
+        <v>477</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>251</v>
+        <v>275</v>
       </c>
       <c r="B38" t="s">
-        <v>429</v>
+        <v>477</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>252</v>
+        <v>276</v>
       </c>
       <c r="B39" t="s">
-        <v>429</v>
+        <v>477</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>253</v>
+        <v>277</v>
       </c>
       <c r="B40" t="s">
-        <v>429</v>
+        <v>477</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>254</v>
+        <v>278</v>
       </c>
       <c r="B41" t="s">
-        <v>429</v>
+        <v>477</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>255</v>
+        <v>279</v>
       </c>
       <c r="B42" t="s">
-        <v>429</v>
+        <v>477</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>256</v>
+        <v>280</v>
       </c>
       <c r="B43" t="s">
-        <v>429</v>
+        <v>477</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>257</v>
+        <v>281</v>
       </c>
       <c r="B44" t="s">
-        <v>429</v>
+        <v>477</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>258</v>
+        <v>282</v>
       </c>
       <c r="B45" t="s">
-        <v>430</v>
+        <v>477</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>259</v>
+        <v>283</v>
       </c>
       <c r="B46" t="s">
-        <v>430</v>
+        <v>477</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>260</v>
+        <v>284</v>
       </c>
       <c r="B47" t="s">
-        <v>430</v>
+        <v>477</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>261</v>
+        <v>285</v>
       </c>
       <c r="B48" t="s">
-        <v>430</v>
+        <v>477</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="B49" t="s">
-        <v>430</v>
+        <v>477</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="B50" t="s">
-        <v>430</v>
+        <v>477</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>264</v>
+        <v>288</v>
       </c>
       <c r="B51" t="s">
-        <v>430</v>
+        <v>477</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>265</v>
+        <v>289</v>
       </c>
       <c r="B52" t="s">
-        <v>430</v>
+        <v>477</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>266</v>
+        <v>290</v>
       </c>
       <c r="B53" t="s">
-        <v>430</v>
+        <v>478</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>267</v>
+        <v>291</v>
       </c>
       <c r="B54" t="s">
-        <v>430</v>
+        <v>478</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>268</v>
+        <v>292</v>
       </c>
       <c r="B55" t="s">
-        <v>430</v>
+        <v>478</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>269</v>
+        <v>293</v>
       </c>
       <c r="B56" t="s">
-        <v>430</v>
+        <v>478</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>270</v>
+        <v>294</v>
       </c>
       <c r="B57" t="s">
-        <v>430</v>
+        <v>478</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>271</v>
+        <v>295</v>
       </c>
       <c r="B58" t="s">
-        <v>431</v>
+        <v>478</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>272</v>
+        <v>296</v>
       </c>
       <c r="B59" t="s">
-        <v>431</v>
+        <v>478</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>273</v>
+        <v>297</v>
       </c>
       <c r="B60" t="s">
-        <v>431</v>
+        <v>478</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>274</v>
+        <v>298</v>
       </c>
       <c r="B61" t="s">
-        <v>431</v>
+        <v>478</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>275</v>
+        <v>299</v>
       </c>
       <c r="B62" t="s">
-        <v>431</v>
+        <v>478</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>276</v>
+        <v>300</v>
       </c>
       <c r="B63" t="s">
-        <v>431</v>
+        <v>478</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>277</v>
+        <v>301</v>
       </c>
       <c r="B64" t="s">
-        <v>431</v>
+        <v>478</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>278</v>
+        <v>302</v>
       </c>
       <c r="B65" t="s">
-        <v>431</v>
+        <v>478</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>279</v>
+        <v>303</v>
       </c>
       <c r="B66" t="s">
-        <v>431</v>
+        <v>479</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>280</v>
+        <v>304</v>
       </c>
       <c r="B67" t="s">
-        <v>431</v>
+        <v>479</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>281</v>
+        <v>305</v>
       </c>
       <c r="B68" t="s">
-        <v>431</v>
+        <v>479</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>282</v>
+        <v>306</v>
       </c>
       <c r="B69" t="s">
-        <v>431</v>
+        <v>479</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>283</v>
+        <v>307</v>
       </c>
       <c r="B70" t="s">
-        <v>432</v>
+        <v>479</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>284</v>
+        <v>308</v>
       </c>
       <c r="B71" t="s">
-        <v>432</v>
+        <v>479</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>285</v>
+        <v>309</v>
       </c>
       <c r="B72" t="s">
-        <v>432</v>
+        <v>479</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>286</v>
+        <v>310</v>
       </c>
       <c r="B73" t="s">
-        <v>432</v>
+        <v>479</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>287</v>
+        <v>311</v>
       </c>
       <c r="B74" t="s">
-        <v>432</v>
+        <v>479</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>288</v>
+        <v>312</v>
       </c>
       <c r="B75" t="s">
-        <v>432</v>
+        <v>479</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>289</v>
+        <v>313</v>
       </c>
       <c r="B76" t="s">
-        <v>432</v>
+        <v>479</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>290</v>
+        <v>314</v>
       </c>
       <c r="B77" t="s">
-        <v>433</v>
+        <v>479</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>291</v>
+        <v>315</v>
       </c>
       <c r="B78" t="s">
-        <v>433</v>
+        <v>479</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>292</v>
+        <v>316</v>
       </c>
       <c r="B79" t="s">
-        <v>433</v>
+        <v>479</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>293</v>
+        <v>317</v>
       </c>
       <c r="B80" t="s">
-        <v>433</v>
+        <v>479</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>294</v>
+        <v>318</v>
       </c>
       <c r="B81" t="s">
-        <v>433</v>
+        <v>479</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>295</v>
+        <v>319</v>
       </c>
       <c r="B82" t="s">
-        <v>433</v>
+        <v>479</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>296</v>
+        <v>320</v>
       </c>
       <c r="B83" t="s">
-        <v>434</v>
+        <v>479</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>297</v>
+        <v>321</v>
       </c>
       <c r="B84" t="s">
-        <v>434</v>
+        <v>479</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>298</v>
+        <v>322</v>
       </c>
       <c r="B85" t="s">
-        <v>434</v>
+        <v>479</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>299</v>
+        <v>323</v>
       </c>
       <c r="B86" t="s">
-        <v>434</v>
+        <v>480</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>300</v>
+        <v>324</v>
       </c>
       <c r="B87" t="s">
-        <v>434</v>
+        <v>480</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>301</v>
+        <v>325</v>
       </c>
       <c r="B88" t="s">
-        <v>434</v>
+        <v>480</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>302</v>
+        <v>326</v>
       </c>
       <c r="B89" t="s">
-        <v>435</v>
+        <v>480</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>303</v>
+        <v>327</v>
       </c>
       <c r="B90" t="s">
-        <v>435</v>
+        <v>480</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>304</v>
+        <v>328</v>
       </c>
       <c r="B91" t="s">
-        <v>435</v>
+        <v>480</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>305</v>
+        <v>329</v>
       </c>
       <c r="B92" t="s">
-        <v>435</v>
+        <v>480</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>306</v>
+        <v>330</v>
       </c>
       <c r="B93" t="s">
-        <v>435</v>
+        <v>481</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>307</v>
+        <v>331</v>
       </c>
       <c r="B94" t="s">
-        <v>435</v>
+        <v>481</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>308</v>
+        <v>332</v>
       </c>
       <c r="B95" t="s">
-        <v>435</v>
+        <v>481</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>309</v>
+        <v>333</v>
       </c>
       <c r="B96" t="s">
-        <v>435</v>
+        <v>481</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="B97" t="s">
-        <v>435</v>
+        <v>481</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>311</v>
+        <v>335</v>
       </c>
       <c r="B98" t="s">
-        <v>435</v>
+        <v>481</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>312</v>
+        <v>336</v>
       </c>
       <c r="B99" t="s">
-        <v>435</v>
+        <v>482</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>313</v>
+        <v>337</v>
       </c>
       <c r="B100" t="s">
-        <v>435</v>
+        <v>482</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>314</v>
+        <v>338</v>
       </c>
       <c r="B101" t="s">
-        <v>435</v>
+        <v>482</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>315</v>
+        <v>339</v>
       </c>
       <c r="B102" t="s">
-        <v>435</v>
+        <v>482</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>316</v>
+        <v>340</v>
       </c>
       <c r="B103" t="s">
-        <v>435</v>
+        <v>482</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>317</v>
+        <v>341</v>
       </c>
       <c r="B104" t="s">
-        <v>435</v>
+        <v>482</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>318</v>
+        <v>342</v>
       </c>
       <c r="B105" t="s">
-        <v>436</v>
+        <v>483</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>319</v>
+        <v>343</v>
       </c>
       <c r="B106" t="s">
-        <v>436</v>
+        <v>483</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>320</v>
+        <v>344</v>
       </c>
       <c r="B107" t="s">
-        <v>436</v>
+        <v>483</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" t="s">
-        <v>321</v>
+        <v>345</v>
       </c>
       <c r="B108" t="s">
-        <v>436</v>
+        <v>483</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>322</v>
+        <v>346</v>
       </c>
       <c r="B109" t="s">
-        <v>436</v>
+        <v>483</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>323</v>
+        <v>347</v>
       </c>
       <c r="B110" t="s">
-        <v>436</v>
+        <v>483</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" t="s">
-        <v>324</v>
+        <v>348</v>
       </c>
       <c r="B111" t="s">
-        <v>436</v>
+        <v>483</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" t="s">
-        <v>325</v>
+        <v>349</v>
       </c>
       <c r="B112" t="s">
-        <v>436</v>
+        <v>483</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>326</v>
+        <v>350</v>
       </c>
       <c r="B113" t="s">
-        <v>436</v>
+        <v>483</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>327</v>
+        <v>351</v>
       </c>
       <c r="B114" t="s">
-        <v>436</v>
+        <v>483</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>328</v>
+        <v>352</v>
       </c>
       <c r="B115" t="s">
-        <v>436</v>
+        <v>483</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" t="s">
-        <v>329</v>
+        <v>353</v>
       </c>
       <c r="B116" t="s">
-        <v>436</v>
+        <v>483</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" t="s">
-        <v>330</v>
+        <v>354</v>
       </c>
       <c r="B117" t="s">
-        <v>436</v>
+        <v>483</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>331</v>
+        <v>355</v>
       </c>
       <c r="B118" t="s">
-        <v>437</v>
+        <v>483</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>332</v>
+        <v>356</v>
       </c>
       <c r="B119" t="s">
-        <v>437</v>
+        <v>483</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>333</v>
+        <v>357</v>
       </c>
       <c r="B120" t="s">
-        <v>438</v>
+        <v>483</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="s">
-        <v>334</v>
+        <v>358</v>
       </c>
       <c r="B121" t="s">
-        <v>438</v>
+        <v>484</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" t="s">
-        <v>335</v>
+        <v>359</v>
       </c>
       <c r="B122" t="s">
-        <v>438</v>
+        <v>484</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" t="s">
-        <v>336</v>
+        <v>360</v>
       </c>
       <c r="B123" t="s">
-        <v>438</v>
+        <v>484</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="s">
-        <v>337</v>
+        <v>361</v>
       </c>
       <c r="B124" t="s">
-        <v>438</v>
+        <v>484</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" t="s">
-        <v>338</v>
+        <v>362</v>
       </c>
       <c r="B125" t="s">
-        <v>439</v>
+        <v>484</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" t="s">
-        <v>339</v>
+        <v>363</v>
       </c>
       <c r="B126" t="s">
-        <v>439</v>
+        <v>484</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" t="s">
-        <v>340</v>
+        <v>364</v>
       </c>
       <c r="B127" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" t="s">
-        <v>341</v>
+        <v>365</v>
       </c>
       <c r="B128" t="s">
-        <v>441</v>
+        <v>484</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" t="s">
-        <v>342</v>
+        <v>366</v>
       </c>
       <c r="B129" t="s">
-        <v>441</v>
+        <v>484</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" t="s">
-        <v>343</v>
+        <v>367</v>
       </c>
       <c r="B130" t="s">
-        <v>441</v>
+        <v>484</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" t="s">
-        <v>344</v>
+        <v>368</v>
       </c>
       <c r="B131" t="s">
-        <v>441</v>
+        <v>484</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" t="s">
-        <v>345</v>
+        <v>369</v>
       </c>
       <c r="B132" t="s">
-        <v>441</v>
+        <v>484</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" t="s">
-        <v>346</v>
+        <v>370</v>
       </c>
       <c r="B133" t="s">
-        <v>441</v>
+        <v>484</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" t="s">
-        <v>347</v>
+        <v>371</v>
       </c>
       <c r="B134" t="s">
-        <v>441</v>
+        <v>485</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" t="s">
-        <v>348</v>
+        <v>372</v>
       </c>
       <c r="B135" t="s">
-        <v>441</v>
+        <v>485</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" t="s">
-        <v>349</v>
+        <v>373</v>
       </c>
       <c r="B136" t="s">
-        <v>441</v>
+        <v>486</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" t="s">
-        <v>350</v>
+        <v>374</v>
       </c>
       <c r="B137" t="s">
-        <v>442</v>
+        <v>486</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" t="s">
-        <v>351</v>
+        <v>375</v>
       </c>
       <c r="B138" t="s">
-        <v>442</v>
+        <v>486</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" t="s">
-        <v>352</v>
+        <v>376</v>
       </c>
       <c r="B139" t="s">
-        <v>443</v>
+        <v>486</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" t="s">
-        <v>353</v>
+        <v>377</v>
       </c>
       <c r="B140" t="s">
-        <v>444</v>
+        <v>486</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" t="s">
-        <v>354</v>
+        <v>378</v>
       </c>
       <c r="B141" t="s">
-        <v>444</v>
+        <v>487</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" t="s">
-        <v>355</v>
+        <v>379</v>
       </c>
       <c r="B142" t="s">
-        <v>444</v>
+        <v>487</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" t="s">
-        <v>356</v>
+        <v>380</v>
       </c>
       <c r="B143" t="s">
-        <v>445</v>
+        <v>488</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" t="s">
-        <v>357</v>
+        <v>381</v>
       </c>
       <c r="B144" t="s">
-        <v>445</v>
+        <v>489</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" t="s">
-        <v>358</v>
+        <v>382</v>
       </c>
       <c r="B145" t="s">
-        <v>445</v>
+        <v>489</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" t="s">
-        <v>359</v>
+        <v>383</v>
       </c>
       <c r="B146" t="s">
-        <v>446</v>
+        <v>489</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" t="s">
-        <v>360</v>
+        <v>384</v>
       </c>
       <c r="B147" t="s">
-        <v>446</v>
+        <v>489</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" t="s">
-        <v>361</v>
+        <v>385</v>
       </c>
       <c r="B148" t="s">
-        <v>446</v>
+        <v>489</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="B149" t="s">
-        <v>446</v>
+        <v>489</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" t="s">
-        <v>363</v>
+        <v>387</v>
       </c>
       <c r="B150" t="s">
-        <v>446</v>
+        <v>489</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" t="s">
-        <v>364</v>
+        <v>388</v>
       </c>
       <c r="B151" t="s">
-        <v>446</v>
+        <v>489</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" t="s">
-        <v>365</v>
+        <v>389</v>
       </c>
       <c r="B152" t="s">
-        <v>446</v>
+        <v>489</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" t="s">
-        <v>366</v>
+        <v>390</v>
       </c>
       <c r="B153" t="s">
-        <v>446</v>
+        <v>490</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" t="s">
-        <v>367</v>
+        <v>391</v>
       </c>
       <c r="B154" t="s">
-        <v>446</v>
+        <v>490</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" t="s">
-        <v>368</v>
+        <v>392</v>
       </c>
       <c r="B155" t="s">
-        <v>446</v>
+        <v>491</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" t="s">
-        <v>369</v>
+        <v>393</v>
       </c>
       <c r="B156" t="s">
-        <v>446</v>
+        <v>492</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" t="s">
-        <v>370</v>
+        <v>394</v>
       </c>
       <c r="B157" t="s">
-        <v>446</v>
+        <v>492</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" t="s">
-        <v>371</v>
+        <v>395</v>
       </c>
       <c r="B158" t="s">
-        <v>446</v>
+        <v>492</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" t="s">
-        <v>372</v>
+        <v>396</v>
       </c>
       <c r="B159" t="s">
-        <v>446</v>
+        <v>493</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" t="s">
-        <v>373</v>
+        <v>397</v>
       </c>
       <c r="B160" t="s">
-        <v>446</v>
+        <v>493</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161" t="s">
-        <v>374</v>
+        <v>398</v>
       </c>
       <c r="B161" t="s">
-        <v>446</v>
+        <v>493</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" t="s">
-        <v>375</v>
+        <v>399</v>
       </c>
       <c r="B162" t="s">
-        <v>446</v>
+        <v>494</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163" t="s">
-        <v>376</v>
+        <v>400</v>
       </c>
       <c r="B163" t="s">
-        <v>446</v>
+        <v>494</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164" t="s">
-        <v>377</v>
+        <v>401</v>
       </c>
       <c r="B164" t="s">
-        <v>446</v>
+        <v>494</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165" t="s">
-        <v>378</v>
+        <v>402</v>
       </c>
       <c r="B165" t="s">
-        <v>446</v>
+        <v>494</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" t="s">
-        <v>379</v>
+        <v>403</v>
       </c>
       <c r="B166" t="s">
-        <v>446</v>
+        <v>494</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167" t="s">
-        <v>380</v>
+        <v>404</v>
       </c>
       <c r="B167" t="s">
-        <v>446</v>
+        <v>494</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="A168" t="s">
-        <v>381</v>
+        <v>405</v>
       </c>
       <c r="B168" t="s">
-        <v>446</v>
+        <v>494</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169" t="s">
-        <v>382</v>
+        <v>406</v>
       </c>
       <c r="B169" t="s">
-        <v>446</v>
+        <v>494</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170" t="s">
-        <v>383</v>
+        <v>407</v>
       </c>
       <c r="B170" t="s">
-        <v>446</v>
+        <v>494</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" t="s">
-        <v>384</v>
+        <v>408</v>
       </c>
       <c r="B171" t="s">
-        <v>446</v>
+        <v>494</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" t="s">
-        <v>385</v>
+        <v>409</v>
       </c>
       <c r="B172" t="s">
-        <v>446</v>
+        <v>494</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173" t="s">
-        <v>386</v>
+        <v>410</v>
       </c>
       <c r="B173" t="s">
-        <v>446</v>
+        <v>494</v>
       </c>
     </row>
     <row r="174" spans="1:2">
       <c r="A174" t="s">
-        <v>387</v>
+        <v>411</v>
       </c>
       <c r="B174" t="s">
-        <v>446</v>
+        <v>494</v>
       </c>
     </row>
     <row r="175" spans="1:2">
       <c r="A175" t="s">
-        <v>388</v>
+        <v>412</v>
       </c>
       <c r="B175" t="s">
-        <v>446</v>
+        <v>494</v>
       </c>
     </row>
     <row r="176" spans="1:2">
       <c r="A176" t="s">
-        <v>389</v>
+        <v>413</v>
       </c>
       <c r="B176" t="s">
-        <v>446</v>
+        <v>494</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" t="s">
-        <v>390</v>
+        <v>414</v>
       </c>
       <c r="B177" t="s">
-        <v>446</v>
+        <v>494</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" t="s">
-        <v>391</v>
+        <v>415</v>
       </c>
       <c r="B178" t="s">
-        <v>446</v>
+        <v>494</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" t="s">
-        <v>392</v>
+        <v>416</v>
       </c>
       <c r="B179" t="s">
-        <v>446</v>
+        <v>494</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" t="s">
-        <v>393</v>
+        <v>417</v>
       </c>
       <c r="B180" t="s">
-        <v>446</v>
+        <v>494</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="A181" t="s">
-        <v>394</v>
+        <v>418</v>
       </c>
       <c r="B181" t="s">
-        <v>446</v>
+        <v>494</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" t="s">
-        <v>395</v>
+        <v>419</v>
       </c>
       <c r="B182" t="s">
-        <v>446</v>
+        <v>494</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" t="s">
-        <v>396</v>
+        <v>420</v>
       </c>
       <c r="B183" t="s">
-        <v>446</v>
+        <v>494</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" t="s">
-        <v>397</v>
+        <v>421</v>
       </c>
       <c r="B184" t="s">
-        <v>446</v>
+        <v>494</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185" t="s">
-        <v>398</v>
+        <v>422</v>
       </c>
       <c r="B185" t="s">
-        <v>446</v>
+        <v>494</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" t="s">
-        <v>399</v>
+        <v>423</v>
       </c>
       <c r="B186" t="s">
-        <v>446</v>
+        <v>494</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187" t="s">
-        <v>400</v>
+        <v>424</v>
       </c>
       <c r="B187" t="s">
-        <v>446</v>
+        <v>494</v>
       </c>
     </row>
     <row r="188" spans="1:2">
       <c r="A188" t="s">
-        <v>401</v>
+        <v>425</v>
       </c>
       <c r="B188" t="s">
-        <v>446</v>
+        <v>494</v>
       </c>
     </row>
     <row r="189" spans="1:2">
       <c r="A189" t="s">
-        <v>402</v>
+        <v>426</v>
       </c>
       <c r="B189" t="s">
-        <v>446</v>
+        <v>494</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190" t="s">
-        <v>403</v>
+        <v>427</v>
       </c>
       <c r="B190" t="s">
-        <v>447</v>
+        <v>494</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" t="s">
-        <v>404</v>
+        <v>428</v>
       </c>
       <c r="B191" t="s">
-        <v>447</v>
+        <v>494</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" t="s">
-        <v>405</v>
+        <v>429</v>
       </c>
       <c r="B192" t="s">
-        <v>448</v>
+        <v>494</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193" t="s">
-        <v>406</v>
+        <v>430</v>
       </c>
       <c r="B193" t="s">
-        <v>448</v>
+        <v>494</v>
       </c>
     </row>
     <row r="194" spans="1:2">
       <c r="A194" t="s">
-        <v>407</v>
+        <v>431</v>
       </c>
       <c r="B194" t="s">
-        <v>449</v>
+        <v>494</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195" t="s">
-        <v>408</v>
+        <v>432</v>
       </c>
       <c r="B195" t="s">
-        <v>449</v>
+        <v>494</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" t="s">
-        <v>409</v>
+        <v>433</v>
       </c>
       <c r="B196" t="s">
-        <v>449</v>
+        <v>494</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" t="s">
-        <v>410</v>
+        <v>434</v>
       </c>
       <c r="B197" t="s">
-        <v>449</v>
+        <v>494</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" t="s">
-        <v>411</v>
+        <v>435</v>
       </c>
       <c r="B198" t="s">
-        <v>449</v>
+        <v>494</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199" t="s">
-        <v>412</v>
+        <v>436</v>
       </c>
       <c r="B199" t="s">
-        <v>449</v>
+        <v>494</v>
       </c>
     </row>
     <row r="200" spans="1:2">
       <c r="A200" t="s">
-        <v>413</v>
+        <v>437</v>
       </c>
       <c r="B200" t="s">
-        <v>449</v>
+        <v>494</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201" t="s">
-        <v>414</v>
+        <v>438</v>
       </c>
       <c r="B201" t="s">
-        <v>449</v>
+        <v>494</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202" t="s">
-        <v>415</v>
+        <v>439</v>
       </c>
       <c r="B202" t="s">
-        <v>449</v>
+        <v>494</v>
       </c>
     </row>
     <row r="203" spans="1:2">
       <c r="A203" t="s">
-        <v>416</v>
+        <v>440</v>
       </c>
       <c r="B203" t="s">
-        <v>449</v>
+        <v>494</v>
       </c>
     </row>
     <row r="204" spans="1:2">
       <c r="A204" t="s">
-        <v>417</v>
+        <v>441</v>
       </c>
       <c r="B204" t="s">
-        <v>449</v>
+        <v>494</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205" t="s">
-        <v>418</v>
+        <v>442</v>
       </c>
       <c r="B205" t="s">
-        <v>449</v>
+        <v>494</v>
       </c>
     </row>
     <row r="206" spans="1:2">
       <c r="A206" t="s">
-        <v>419</v>
+        <v>443</v>
       </c>
       <c r="B206" t="s">
-        <v>450</v>
+        <v>494</v>
       </c>
     </row>
     <row r="207" spans="1:2">
       <c r="A207" t="s">
-        <v>420</v>
+        <v>444</v>
       </c>
       <c r="B207" t="s">
-        <v>450</v>
+        <v>494</v>
       </c>
     </row>
     <row r="208" spans="1:2">
       <c r="A208" t="s">
-        <v>421</v>
+        <v>445</v>
       </c>
       <c r="B208" t="s">
-        <v>450</v>
+        <v>494</v>
       </c>
     </row>
     <row r="209" spans="1:2">
       <c r="A209" t="s">
-        <v>422</v>
+        <v>446</v>
       </c>
       <c r="B209" t="s">
-        <v>450</v>
+        <v>494</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" t="s">
-        <v>423</v>
+        <v>447</v>
       </c>
       <c r="B210" t="s">
-        <v>450</v>
+        <v>494</v>
       </c>
     </row>
     <row r="211" spans="1:2">
       <c r="A211" t="s">
-        <v>424</v>
+        <v>448</v>
       </c>
       <c r="B211" t="s">
-        <v>451</v>
+        <v>494</v>
       </c>
     </row>
     <row r="212" spans="1:2">
       <c r="A212" t="s">
-        <v>425</v>
+        <v>449</v>
       </c>
       <c r="B212" t="s">
-        <v>451</v>
+        <v>494</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="A213" t="s">
-        <v>426</v>
+        <v>450</v>
       </c>
       <c r="B213" t="s">
-        <v>452</v>
+        <v>494</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214" t="s">
-        <v>427</v>
+        <v>451</v>
       </c>
       <c r="B214" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2">
+      <c r="A215" t="s">
         <v>452</v>
+      </c>
+      <c r="B215" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2">
+      <c r="A216" t="s">
+        <v>453</v>
+      </c>
+      <c r="B216" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2">
+      <c r="A217" t="s">
+        <v>454</v>
+      </c>
+      <c r="B217" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2">
+      <c r="A218" t="s">
+        <v>455</v>
+      </c>
+      <c r="B218" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2">
+      <c r="A219" t="s">
+        <v>456</v>
+      </c>
+      <c r="B219" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2">
+      <c r="A220" t="s">
+        <v>457</v>
+      </c>
+      <c r="B220" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2">
+      <c r="A221" t="s">
+        <v>458</v>
+      </c>
+      <c r="B221" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2">
+      <c r="A222" t="s">
+        <v>459</v>
+      </c>
+      <c r="B222" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2">
+      <c r="A223" t="s">
+        <v>460</v>
+      </c>
+      <c r="B223" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2">
+      <c r="A224" t="s">
+        <v>461</v>
+      </c>
+      <c r="B224" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2">
+      <c r="A225" t="s">
+        <v>462</v>
+      </c>
+      <c r="B225" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2">
+      <c r="A226" t="s">
+        <v>463</v>
+      </c>
+      <c r="B226" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2">
+      <c r="A227" t="s">
+        <v>464</v>
+      </c>
+      <c r="B227" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2">
+      <c r="A228" t="s">
+        <v>465</v>
+      </c>
+      <c r="B228" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2">
+      <c r="A229" t="s">
+        <v>466</v>
+      </c>
+      <c r="B229" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2">
+      <c r="A230" t="s">
+        <v>467</v>
+      </c>
+      <c r="B230" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2">
+      <c r="A231" t="s">
+        <v>468</v>
+      </c>
+      <c r="B231" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2">
+      <c r="A232" t="s">
+        <v>469</v>
+      </c>
+      <c r="B232" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2">
+      <c r="A233" t="s">
+        <v>470</v>
+      </c>
+      <c r="B233" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2">
+      <c r="A234" t="s">
+        <v>471</v>
+      </c>
+      <c r="B234" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2">
+      <c r="A235" t="s">
+        <v>472</v>
+      </c>
+      <c r="B235" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2">
+      <c r="A236" t="s">
+        <v>473</v>
+      </c>
+      <c r="B236" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2">
+      <c r="A237" t="s">
+        <v>474</v>
+      </c>
+      <c r="B237" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2">
+      <c r="A238" t="s">
+        <v>475</v>
+      </c>
+      <c r="B238" t="s">
+        <v>500</v>
       </c>
     </row>
   </sheetData>
